--- a/Luban/ExcelConfig/Datas/__beans__.xlsx
+++ b/Luban/ExcelConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -17,18 +17,31 @@
     <sheet name="Caster" sheetId="10" r:id="rId8"/>
     <sheet name="Drops" sheetId="13" r:id="rId9"/>
     <sheet name="Pickable" sheetId="15" r:id="rId10"/>
-    <sheet name="test" sheetId="16" r:id="rId11"/>
-    <sheet name="Adventure" sheetId="17" r:id="rId12"/>
+    <sheet name="Adventure" sheetId="17" r:id="rId11"/>
+    <sheet name="Bolt" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Behavior!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="371">
   <si>
     <t>##var</t>
   </si>
@@ -459,6 +472,9 @@
     <t>警示标名称</t>
   </si>
   <si>
+    <t>警示标类型, 0代表剑魔q那种范围碰撞类型, 1代表ez的q那种弹道类型</t>
+  </si>
+  <si>
     <t>timeline.CloseWarningBoardInfo</t>
   </si>
   <si>
@@ -480,6 +496,84 @@
     <t>timeline.TpHarmInfo</t>
   </si>
   <si>
+    <t>一个伤害行为</t>
+  </si>
+  <si>
+    <t>timeline.HarmOfTargetedInfo</t>
+  </si>
+  <si>
+    <t>指向伤害</t>
+  </si>
+  <si>
+    <t>剑魔平a</t>
+  </si>
+  <si>
+    <t>harm_formula</t>
+  </si>
+  <si>
+    <t>numeric.DamageFormulaInfo#sep=&gt;</t>
+  </si>
+  <si>
+    <t>伤害的配方</t>
+  </si>
+  <si>
+    <t>hit_fx</t>
+  </si>
+  <si>
+    <t>hit_sound</t>
+  </si>
+  <si>
+    <t>timeline.HarmOfTargetedBoltInfo</t>
+  </si>
+  <si>
+    <t>指向投射伤害</t>
+  </si>
+  <si>
+    <t>ez平a</t>
+  </si>
+  <si>
+    <t>bolt_name</t>
+  </si>
+  <si>
+    <t>投射物名</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>弹道速度</t>
+  </si>
+  <si>
+    <t>timeline.HarmOfDirectionBoltInfo</t>
+  </si>
+  <si>
+    <t>方向投射伤害</t>
+  </si>
+  <si>
+    <t>ez的q</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>最大距离</t>
+  </si>
+  <si>
+    <t>timeline.HarmOfPointBoltInfo</t>
+  </si>
+  <si>
+    <t>目标点投射伤害</t>
+  </si>
+  <si>
+    <t>奶妈的q</t>
+  </si>
+  <si>
+    <t>timeline.HarmOfDibozhanBoltInfo</t>
+  </si>
+  <si>
+    <t>地波斩伤害</t>
+  </si>
+  <si>
     <t>harm_formulas</t>
   </si>
   <si>
@@ -489,64 +583,10 @@
     <t>伤害的配方(可造成多段伤害)</t>
   </si>
   <si>
-    <t>timeline.HarmOfTargetedInfo</t>
-  </si>
-  <si>
-    <t>指向伤害</t>
-  </si>
-  <si>
-    <t>剑魔平a</t>
-  </si>
-  <si>
-    <t>hit_fx</t>
-  </si>
-  <si>
-    <t>hit_sound</t>
-  </si>
-  <si>
-    <t>timeline.HarmOfTargetedBoltInfo</t>
-  </si>
-  <si>
-    <t>指向投射伤害</t>
-  </si>
-  <si>
-    <t>ez平a</t>
-  </si>
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>投射物名</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>弹道速度</t>
-  </si>
-  <si>
-    <t>timeline.HarmOfDirectionBoltInfo</t>
-  </si>
-  <si>
-    <t>方向投射伤害</t>
-  </si>
-  <si>
-    <t>ez的q</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>最大距离</t>
-  </si>
-  <si>
-    <t>timeline.HarmOfPointBoltInfo</t>
-  </si>
-  <si>
-    <t>目标点投射伤害</t>
-  </si>
-  <si>
-    <t>奶妈的q</t>
+    <t>internal_time</t>
+  </si>
+  <si>
+    <t>internal_distance</t>
   </si>
   <si>
     <t>##动作时间段</t>
@@ -798,18 +838,18 @@
     <t>resist_pri</t>
   </si>
   <si>
+    <t>exclu_pri</t>
+  </si>
+  <si>
     <t>keep_pri</t>
   </si>
   <si>
-    <t>exclu_pri</t>
+    <t>dis_pri</t>
   </si>
   <si>
     <t>run_pri</t>
   </si>
   <si>
-    <t>dis_pri</t>
-  </si>
-  <si>
     <t>sp_pass</t>
   </si>
   <si>
@@ -819,18 +859,18 @@
     <t>sp_inter</t>
   </si>
   <si>
+    <t>sp_exclu</t>
+  </si>
+  <si>
     <t>sp_keep</t>
   </si>
   <si>
-    <t>sp_exclu</t>
+    <t>sp_dis</t>
   </si>
   <si>
     <t>sp_run</t>
   </si>
   <si>
-    <t>sp_dis</t>
-  </si>
-  <si>
     <t>allow_reenter</t>
   </si>
   <si>
@@ -939,7 +979,7 @@
     <t>始终触发</t>
   </si>
   <si>
-    <t>系统自动施法, 比如龙王的被动技能(自动型施法)</t>
+    <t>隐藏的但需要持续释放的技能, 比如多数被动技能</t>
   </si>
   <si>
     <t>cast.ConditionCastOfBehaviorInfo</t>
@@ -1065,42 +1105,6 @@
     <t>count</t>
   </si>
   <si>
-    <t>test.Info</t>
-  </si>
-  <si>
-    <t>`/&gt;</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>(list#sep=;),test.Info</t>
-  </si>
-  <si>
-    <t>(list#sep=;),test.Info#sep=/</t>
-  </si>
-  <si>
-    <t>test.T1Info</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>test.T2Info</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>test.T3Info</t>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
     <t>adventure.Info</t>
   </si>
   <si>
@@ -1123,12 +1127,39 @@
   </si>
   <si>
     <t>(list#sep=|),CandidateInfo#sep=/</t>
+  </si>
+  <si>
+    <t>bolt.Info</t>
+  </si>
+  <si>
+    <t>bolt.BoltOfPointInfo</t>
+  </si>
+  <si>
+    <t>目标点发射物</t>
+  </si>
+  <si>
+    <t>bolt.BoltOfTargetInfo</t>
+  </si>
+  <si>
+    <t>目标发射物</t>
+  </si>
+  <si>
+    <t>bolt.BoltOfDirectionInfo</t>
+  </si>
+  <si>
+    <t>方向发射物</t>
+  </si>
+  <si>
+    <t>bolt.BoltOfDibozhanInfo</t>
+  </si>
+  <si>
+    <t>地波斩发射物</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1757,10 +1788,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2086,7 +2117,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2353,7 +2384,7 @@
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
@@ -2507,7 +2538,7 @@
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2515,36 +2546,36 @@
     </row>
     <row r="7" customFormat="1" spans="2:6">
       <c r="B7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:9">
       <c r="B9" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H9" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="I9" t="s">
         <v>67</v>
@@ -2562,215 +2593,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="58.75" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="27.75" customWidth="1"/>
-    <col min="10" max="10" width="6.375" customWidth="1"/>
-    <col min="11" max="11" width="30.75" customWidth="1"/>
-    <col min="12" max="12" width="5.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="2:11">
-      <c r="B6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" t="s">
-        <v>346</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I6" t="s">
-        <v>348</v>
-      </c>
-      <c r="K6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:9">
-      <c r="B8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" t="s">
-        <v>351</v>
-      </c>
-      <c r="H8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:9">
-      <c r="B10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
-        <v>354</v>
-      </c>
-      <c r="H10" t="s">
-        <v>352</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:9">
-      <c r="B12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D12" t="s">
-        <v>346</v>
-      </c>
-      <c r="E12" t="s">
-        <v>356</v>
-      </c>
-      <c r="H12" t="s">
-        <v>352</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:2">
-      <c r="B23" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2879,7 +2705,7 @@
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2887,16 +2713,16 @@
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H7" t="s">
         <v>357</v>
-      </c>
-      <c r="E7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H7" t="s">
-        <v>360</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -2904,7 +2730,7 @@
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
         <v>67</v>
@@ -2912,19 +2738,193 @@
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H10" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" t="s">
         <v>361</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>365</v>
+      </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" t="s">
         <v>362</v>
       </c>
-      <c r="H10" t="s">
-        <v>363</v>
-      </c>
-      <c r="I10" t="s">
-        <v>364</v>
+      <c r="E13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3092,7 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:2">
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3106,12 +3106,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L192"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E193" sqref="E193"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3123,7 +3123,7 @@
     <col min="5" max="5" width="26.75" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="42.125" customWidth="1"/>
     <col min="10" max="10" width="6.625" customWidth="1"/>
     <col min="11" max="11" width="47.625" customWidth="1"/>
@@ -3795,794 +3795,798 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
-      <c r="B93" t="s">
+    <row r="92" spans="8:11">
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" t="s">
+        <v>67</v>
+      </c>
+      <c r="K92" t="s">
         <v>143</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" t="s">
         <v>108</v>
       </c>
-      <c r="D93" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" t="s">
-        <v>144</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>145</v>
+      </c>
+      <c r="H94" t="s">
         <v>141</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I94" t="s">
         <v>33</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K94" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
-      <c r="B95" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" t="s">
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" t="s">
         <v>108</v>
       </c>
-      <c r="D95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" t="s">
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
         <v>147</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" t="s">
         <v>108</v>
       </c>
-      <c r="D97" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99" t="s">
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s">
         <v>149</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
         <v>108</v>
       </c>
-      <c r="D99" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" t="s">
         <v>150</v>
       </c>
-      <c r="I99" t="s">
-        <v>151</v>
-      </c>
-      <c r="K99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101" t="s">
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
         <v>153</v>
       </c>
-      <c r="C101" t="s">
-        <v>149</v>
-      </c>
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F102" t="s">
         <v>154</v>
       </c>
-      <c r="F101" t="s">
+      <c r="H102" t="s">
         <v>155</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I102" t="s">
         <v>156</v>
       </c>
-      <c r="I101" t="s">
+      <c r="K102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9">
+      <c r="H103" t="s">
+        <v>158</v>
+      </c>
+      <c r="I103" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="8:9">
-      <c r="H102" t="s">
-        <v>157</v>
-      </c>
-      <c r="I102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" t="s">
-        <v>149</v>
-      </c>
-      <c r="D104" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" t="s">
+    <row r="104" spans="8:9">
+      <c r="H104" t="s">
         <v>159</v>
-      </c>
-      <c r="F104" t="s">
-        <v>160</v>
-      </c>
-      <c r="H104" t="s">
-        <v>161</v>
       </c>
       <c r="I104" t="s">
         <v>33</v>
       </c>
-      <c r="K104" t="s">
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="105" spans="8:11">
-      <c r="H105" t="s">
+      <c r="H106" t="s">
+        <v>155</v>
+      </c>
+      <c r="I106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11">
+      <c r="H107" t="s">
         <v>163</v>
-      </c>
-      <c r="I105" t="s">
-        <v>46</v>
-      </c>
-      <c r="K105" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="8:9">
-      <c r="H106" t="s">
-        <v>156</v>
-      </c>
-      <c r="I106" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="8:9">
-      <c r="H107" t="s">
-        <v>157</v>
       </c>
       <c r="I107" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" t="s">
+      <c r="K107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11">
+      <c r="H108" t="s">
         <v>165</v>
       </c>
-      <c r="C109" t="s">
-        <v>149</v>
-      </c>
-      <c r="D109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="I108" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108" t="s">
         <v>166</v>
       </c>
-      <c r="F109" t="s">
-        <v>167</v>
-      </c>
+    </row>
+    <row r="109" spans="8:9">
       <c r="H109" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I109" t="s">
         <v>33</v>
       </c>
-      <c r="K109" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="8:11">
+    </row>
+    <row r="110" spans="8:9">
       <c r="H110" t="s">
+        <v>159</v>
+      </c>
+      <c r="I110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
         <v>168</v>
       </c>
-      <c r="I110" t="s">
-        <v>46</v>
-      </c>
-      <c r="K110" t="s">
+      <c r="F112" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="111" spans="8:11">
-      <c r="H111" t="s">
+      <c r="H112" t="s">
+        <v>155</v>
+      </c>
+      <c r="I112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11">
+      <c r="H113" t="s">
         <v>163</v>
-      </c>
-      <c r="I111" t="s">
-        <v>46</v>
-      </c>
-      <c r="K111" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="8:9">
-      <c r="H112" t="s">
-        <v>156</v>
-      </c>
-      <c r="I112" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="113" spans="8:9">
-      <c r="H113" t="s">
-        <v>157</v>
       </c>
       <c r="I113" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="B115" t="s">
+      <c r="K113" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11">
+      <c r="H114" t="s">
         <v>170</v>
       </c>
-      <c r="C115" t="s">
-        <v>149</v>
-      </c>
-      <c r="D115" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="I114" t="s">
+        <v>46</v>
+      </c>
+      <c r="K114" t="s">
         <v>171</v>
       </c>
-      <c r="F115" t="s">
+    </row>
+    <row r="115" spans="8:11">
+      <c r="H115" t="s">
+        <v>165</v>
+      </c>
+      <c r="I115" t="s">
+        <v>46</v>
+      </c>
+      <c r="K115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9">
+      <c r="H116" t="s">
+        <v>158</v>
+      </c>
+      <c r="I116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9">
+      <c r="H117" t="s">
+        <v>159</v>
+      </c>
+      <c r="I117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" t="s">
         <v>172</v>
       </c>
-      <c r="H115" t="s">
-        <v>161</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="C119" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F119" t="s">
+        <v>174</v>
+      </c>
+      <c r="H119" t="s">
+        <v>155</v>
+      </c>
+      <c r="I119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11">
+      <c r="H120" t="s">
+        <v>163</v>
+      </c>
+      <c r="I120" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="116" spans="8:11">
-      <c r="H116" t="s">
-        <v>163</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="K120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="8:9">
+      <c r="H121" t="s">
+        <v>165</v>
+      </c>
+      <c r="I121" t="s">
         <v>46</v>
       </c>
-      <c r="K116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123" t="s">
-        <v>174</v>
-      </c>
-      <c r="C123" t="s">
-        <v>106</v>
-      </c>
-      <c r="D123" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" t="s">
-        <v>40</v>
-      </c>
-      <c r="I123" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="8:9">
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" t="s">
+        <v>150</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s">
+        <v>176</v>
+      </c>
       <c r="H124" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>178</v>
+      </c>
+      <c r="K124" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="8:9">
       <c r="H125" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
-      <c r="B127" t="s">
-        <v>177</v>
-      </c>
-      <c r="C127" t="s">
-        <v>174</v>
-      </c>
-      <c r="D127" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" t="s">
-        <v>178</v>
-      </c>
-      <c r="H127" t="s">
-        <v>179</v>
-      </c>
-      <c r="I127" t="s">
+    <row r="126" spans="8:9">
+      <c r="H126" t="s">
+        <v>181</v>
+      </c>
+      <c r="I126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" t="s">
+        <v>183</v>
+      </c>
+      <c r="C134" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" t="s">
+        <v>40</v>
+      </c>
+      <c r="I134" t="s">
         <v>67</v>
       </c>
-      <c r="K127" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" t="s">
-        <v>181</v>
-      </c>
-      <c r="C129" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" t="s">
-        <v>22</v>
-      </c>
-      <c r="E129" t="s">
-        <v>182</v>
-      </c>
-      <c r="H129" t="s">
+    </row>
+    <row r="135" spans="8:9">
+      <c r="H135" t="s">
+        <v>184</v>
+      </c>
+      <c r="I135" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9">
+      <c r="H136" t="s">
+        <v>185</v>
+      </c>
+      <c r="I136" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" t="s">
         <v>183</v>
       </c>
-      <c r="I129" t="s">
-        <v>184</v>
-      </c>
-      <c r="K129" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11">
-      <c r="B131" t="s">
-        <v>186</v>
-      </c>
-      <c r="C131" t="s">
-        <v>174</v>
-      </c>
-      <c r="D131" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="D138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s">
         <v>187</v>
       </c>
-      <c r="H131" t="s">
-        <v>168</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="H138" t="s">
+        <v>188</v>
+      </c>
+      <c r="I138" t="s">
+        <v>67</v>
+      </c>
+      <c r="K138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" t="s">
+        <v>183</v>
+      </c>
+      <c r="D140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s">
+        <v>191</v>
+      </c>
+      <c r="H140" t="s">
+        <v>192</v>
+      </c>
+      <c r="I140" t="s">
+        <v>193</v>
+      </c>
+      <c r="K140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" t="s">
+        <v>195</v>
+      </c>
+      <c r="C142" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" t="s">
+        <v>196</v>
+      </c>
+      <c r="H142" t="s">
+        <v>170</v>
+      </c>
+      <c r="I142" t="s">
         <v>46</v>
       </c>
-      <c r="K131" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" t="s">
-        <v>189</v>
-      </c>
-      <c r="C133" t="s">
-        <v>174</v>
-      </c>
-      <c r="D133" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" t="s">
-        <v>191</v>
-      </c>
-      <c r="C135" t="s">
-        <v>174</v>
-      </c>
-      <c r="D135" t="s">
-        <v>22</v>
-      </c>
-      <c r="E135" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" t="s">
-        <v>193</v>
-      </c>
-      <c r="C137" t="s">
-        <v>174</v>
-      </c>
-      <c r="D137" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" t="s">
-        <v>194</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="K142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" t="s">
+        <v>183</v>
+      </c>
+      <c r="D144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+      <c r="D146" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" t="s">
+        <v>202</v>
+      </c>
+      <c r="C148" t="s">
+        <v>183</v>
+      </c>
+      <c r="D148" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" t="s">
+        <v>203</v>
+      </c>
+      <c r="H148" t="s">
         <v>141</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I148" t="s">
         <v>33</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K148" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
-      <c r="B139" t="s">
-        <v>195</v>
-      </c>
-      <c r="C139" t="s">
-        <v>174</v>
-      </c>
-      <c r="D139" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" t="s">
-        <v>150</v>
-      </c>
-      <c r="I139" t="s">
-        <v>151</v>
-      </c>
-      <c r="K139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11">
-      <c r="B141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" t="s">
-        <v>195</v>
-      </c>
-      <c r="D141" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" t="s">
-        <v>197</v>
-      </c>
-      <c r="H141" t="s">
-        <v>198</v>
-      </c>
-      <c r="I141" t="s">
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C152" t="s">
+        <v>204</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" t="s">
+        <v>206</v>
+      </c>
+      <c r="H152" t="s">
+        <v>155</v>
+      </c>
+      <c r="I152" t="s">
+        <v>156</v>
+      </c>
+      <c r="K152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="8:11">
+      <c r="H153" t="s">
+        <v>207</v>
+      </c>
+      <c r="I153" t="s">
         <v>46</v>
       </c>
-      <c r="K141" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="B143" t="s">
-        <v>200</v>
-      </c>
-      <c r="C143" t="s">
-        <v>195</v>
-      </c>
-      <c r="D143" t="s">
-        <v>22</v>
-      </c>
-      <c r="E143" t="s">
-        <v>201</v>
-      </c>
-      <c r="H143" t="s">
-        <v>198</v>
-      </c>
-      <c r="I143" t="s">
+      <c r="K153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" t="s">
+        <v>209</v>
+      </c>
+      <c r="C155" t="s">
+        <v>204</v>
+      </c>
+      <c r="D155" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" t="s">
+        <v>210</v>
+      </c>
+      <c r="H155" t="s">
+        <v>155</v>
+      </c>
+      <c r="I155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="8:11">
+      <c r="H156" t="s">
+        <v>207</v>
+      </c>
+      <c r="I156" t="s">
         <v>46</v>
       </c>
-      <c r="K143" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" t="s">
-        <v>202</v>
-      </c>
-      <c r="C145" t="s">
-        <v>195</v>
-      </c>
-      <c r="D145" t="s">
-        <v>22</v>
-      </c>
-      <c r="E145" t="s">
-        <v>203</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="K156" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9">
+      <c r="B158" t="s">
+        <v>211</v>
+      </c>
+      <c r="C158" t="s">
         <v>204</v>
       </c>
-      <c r="H145" t="s">
-        <v>205</v>
-      </c>
-      <c r="I145" t="s">
+      <c r="D158" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" t="s">
+        <v>212</v>
+      </c>
+      <c r="F158" t="s">
+        <v>213</v>
+      </c>
+      <c r="H158" t="s">
+        <v>155</v>
+      </c>
+      <c r="I158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="8:11">
+      <c r="H159" t="s">
+        <v>214</v>
+      </c>
+      <c r="I159" t="s">
         <v>33</v>
       </c>
-      <c r="K145" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146" spans="8:9">
-      <c r="H146" t="s">
+      <c r="K159" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="8:9">
+      <c r="H160" t="s">
+        <v>158</v>
+      </c>
+      <c r="I160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="8:9">
+      <c r="H161" t="s">
+        <v>159</v>
+      </c>
+      <c r="I161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9">
+      <c r="B163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" t="s">
+        <v>204</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" t="s">
+        <v>217</v>
+      </c>
+      <c r="F163" t="s">
+        <v>213</v>
+      </c>
+      <c r="H163" t="s">
+        <v>155</v>
+      </c>
+      <c r="I163" t="s">
         <v>156</v>
       </c>
-      <c r="I146" t="s">
+    </row>
+    <row r="164" spans="8:9">
+      <c r="H164" t="s">
+        <v>158</v>
+      </c>
+      <c r="I164" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="8:9">
-      <c r="H147" t="s">
-        <v>157</v>
-      </c>
-      <c r="I147" t="s">
+    <row r="165" spans="8:9">
+      <c r="H165" t="s">
+        <v>159</v>
+      </c>
+      <c r="I165" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
-      <c r="B149" t="s">
-        <v>207</v>
-      </c>
-      <c r="C149" t="s">
-        <v>195</v>
-      </c>
-      <c r="D149" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" t="s">
-        <v>208</v>
-      </c>
-      <c r="F149" t="s">
+    <row r="167" spans="2:9">
+      <c r="B167" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" t="s">
         <v>204</v>
       </c>
-      <c r="H149" t="s">
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" t="s">
+        <v>219</v>
+      </c>
+      <c r="F167" t="s">
+        <v>213</v>
+      </c>
+      <c r="H167" t="s">
+        <v>155</v>
+      </c>
+      <c r="I167" t="s">
         <v>156</v>
       </c>
-      <c r="I149" t="s">
+    </row>
+    <row r="168" spans="8:9">
+      <c r="H168" t="s">
+        <v>158</v>
+      </c>
+      <c r="I168" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="8:9">
-      <c r="H150" t="s">
-        <v>157</v>
-      </c>
-      <c r="I150" t="s">
+    <row r="169" spans="8:9">
+      <c r="H169" t="s">
+        <v>159</v>
+      </c>
+      <c r="I169" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
-      <c r="B152" t="s">
-        <v>209</v>
-      </c>
-      <c r="C152" t="s">
-        <v>195</v>
-      </c>
-      <c r="D152" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" t="s">
-        <v>210</v>
-      </c>
-      <c r="F152" t="s">
-        <v>204</v>
-      </c>
-      <c r="H152" t="s">
-        <v>156</v>
-      </c>
-      <c r="I152" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="153" spans="8:9">
-      <c r="H153" t="s">
-        <v>157</v>
-      </c>
-      <c r="I153" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" t="s">
-        <v>212</v>
-      </c>
-      <c r="C157" t="s">
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" t="s">
+        <v>221</v>
+      </c>
+      <c r="C175" t="s">
         <v>62</v>
       </c>
-      <c r="D157" t="s">
-        <v>22</v>
-      </c>
-      <c r="F157" t="s">
-        <v>213</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="D175" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" t="s">
+        <v>222</v>
+      </c>
+      <c r="H175" t="s">
         <v>66</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I175" t="s">
         <v>67</v>
       </c>
-      <c r="K157" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="158" spans="8:11">
-      <c r="H158" t="s">
+      <c r="K175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="8:11">
+      <c r="H176" t="s">
         <v>68</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I176" t="s">
         <v>67</v>
       </c>
-      <c r="K158" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6">
-      <c r="B160" t="s">
-        <v>216</v>
-      </c>
-      <c r="C160" t="s">
-        <v>212</v>
-      </c>
-      <c r="D160" t="s">
-        <v>22</v>
-      </c>
-      <c r="E160" t="s">
-        <v>217</v>
-      </c>
-      <c r="F160" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6">
-      <c r="B162" t="s">
-        <v>219</v>
-      </c>
-      <c r="C162" t="s">
-        <v>212</v>
-      </c>
-      <c r="D162" t="s">
-        <v>22</v>
-      </c>
-      <c r="E162" t="s">
-        <v>220</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="K176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" t="s">
+        <v>225</v>
+      </c>
+      <c r="C178" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="164" spans="2:6">
-      <c r="B164" t="s">
-        <v>222</v>
-      </c>
-      <c r="C164" t="s">
-        <v>212</v>
-      </c>
-      <c r="D164" t="s">
-        <v>22</v>
-      </c>
-      <c r="E164" t="s">
-        <v>223</v>
-      </c>
-      <c r="F164" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4">
-      <c r="B170" t="s">
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s">
         <v>226</v>
       </c>
-      <c r="C170" t="s">
-        <v>85</v>
-      </c>
-      <c r="D170" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5">
-      <c r="B172" t="s">
+      <c r="F178" t="s">
         <v>227</v>
       </c>
-      <c r="C172" t="s">
-        <v>226</v>
-      </c>
-      <c r="D172" t="s">
-        <v>22</v>
-      </c>
-      <c r="E172" t="s">
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="174" spans="2:5">
-      <c r="B174" t="s">
+      <c r="C180" t="s">
+        <v>221</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" t="s">
         <v>229</v>
       </c>
-      <c r="C174" t="s">
-        <v>226</v>
-      </c>
-      <c r="D174" t="s">
-        <v>22</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="F180" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="2:5">
-      <c r="B176" t="s">
+    <row r="182" spans="2:6">
+      <c r="B182" t="s">
         <v>231</v>
       </c>
-      <c r="C176" t="s">
-        <v>226</v>
-      </c>
-      <c r="D176" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="C182" t="s">
+        <v>221</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178" t="s">
+      <c r="F182" t="s">
         <v>233</v>
-      </c>
-      <c r="C178" t="s">
-        <v>226</v>
-      </c>
-      <c r="D178" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180" t="s">
-        <v>235</v>
-      </c>
-      <c r="C180" t="s">
-        <v>226</v>
-      </c>
-      <c r="D180" t="s">
-        <v>22</v>
-      </c>
-      <c r="E180" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11">
-      <c r="B182" t="s">
-        <v>237</v>
-      </c>
-      <c r="C182" t="s">
-        <v>226</v>
-      </c>
-      <c r="D182" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" t="s">
-        <v>238</v>
-      </c>
-      <c r="H182" t="s">
-        <v>239</v>
-      </c>
-      <c r="I182" t="s">
-        <v>46</v>
-      </c>
-      <c r="K182" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C188" t="s">
         <v>85</v>
@@ -4593,30 +4597,139 @@
     </row>
     <row r="190" spans="2:5">
       <c r="B190" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C190" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D190" t="s">
         <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" spans="2:5">
       <c r="B192" t="s">
+        <v>238</v>
+      </c>
+      <c r="C192" t="s">
+        <v>235</v>
+      </c>
+      <c r="D192" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
+        <v>240</v>
+      </c>
+      <c r="C194" t="s">
+        <v>235</v>
+      </c>
+      <c r="D194" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
+        <v>242</v>
+      </c>
+      <c r="C196" t="s">
+        <v>235</v>
+      </c>
+      <c r="D196" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
+        <v>244</v>
+      </c>
+      <c r="C198" t="s">
+        <v>235</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" t="s">
         <v>245</v>
       </c>
-      <c r="C192" t="s">
-        <v>242</v>
-      </c>
-      <c r="D192" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" t="s">
+    </row>
+    <row r="200" spans="2:11">
+      <c r="B200" t="s">
         <v>246</v>
+      </c>
+      <c r="C200" t="s">
+        <v>235</v>
+      </c>
+      <c r="D200" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" t="s">
+        <v>247</v>
+      </c>
+      <c r="H200" t="s">
+        <v>248</v>
+      </c>
+      <c r="I200" t="s">
+        <v>46</v>
+      </c>
+      <c r="K200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" t="s">
+        <v>251</v>
+      </c>
+      <c r="C206" t="s">
+        <v>85</v>
+      </c>
+      <c r="D206" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" t="s">
+        <v>252</v>
+      </c>
+      <c r="C208" t="s">
+        <v>251</v>
+      </c>
+      <c r="D208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" t="s">
+        <v>254</v>
+      </c>
+      <c r="C210" t="s">
+        <v>251</v>
+      </c>
+      <c r="D210" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4633,10 +4746,10 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4745,27 +4858,27 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -4773,7 +4886,7 @@
     </row>
     <row r="10" spans="8:9">
       <c r="H10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
@@ -4781,15 +4894,15 @@
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="I11" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I12" t="s">
         <v>67</v>
@@ -4797,7 +4910,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I13" t="s">
         <v>67</v>
@@ -4805,7 +4918,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
@@ -4813,7 +4926,7 @@
     </row>
     <row r="15" spans="8:9">
       <c r="H15" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
@@ -4821,7 +4934,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I16" t="s">
         <v>67</v>
@@ -4829,7 +4942,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I17" t="s">
         <v>67</v>
@@ -4837,58 +4950,58 @@
     </row>
     <row r="18" spans="8:9">
       <c r="H18" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I18" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I19" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I20" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="H21" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I21" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="8:9">
       <c r="H24" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5018,35 +5131,35 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I10" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
@@ -5054,13 +5167,13 @@
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I12" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5189,27 +5302,27 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5449,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -5344,10 +5457,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -5355,19 +5468,19 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -5378,19 +5491,19 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -5413,8 +5526,8 @@
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5523,87 +5636,87 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>289</v>
+      <c r="F6" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="6:6">
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="H10" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="8:11">
       <c r="H11" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K11" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5611,79 +5724,79 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>310</v>
+        <v>318</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="H27" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I27" t="s">
         <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>315</v>
+        <v>323</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="H29" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I29" t="s">
         <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5810,7 +5923,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -5818,19 +5931,19 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="I7" t="s">
         <v>67</v>
@@ -5838,7 +5951,7 @@
     </row>
     <row r="8" spans="8:9">
       <c r="H8" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
         <v>67</v>
@@ -5846,86 +5959,86 @@
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
         <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K10" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" t="s">
         <v>327</v>
       </c>
-      <c r="C13" t="s">
-        <v>318</v>
-      </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H13" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I13" t="s">
         <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
       </c>
       <c r="K14" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="I15" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H17" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="I17" t="s">
         <v>67</v>
@@ -5933,35 +6046,35 @@
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I18" t="s">
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="I19" t="s">
         <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K20" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/__beans__.xlsx
+++ b/Luban/ExcelConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowHeight="17680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="372">
   <si>
     <t>##var</t>
   </si>
@@ -217,9 +217,27 @@
     <t>流水线相关信息基类</t>
   </si>
   <si>
+    <t>procedureline.Null</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>因为不能不填, 所以专门设置一个空的类型, 用来代表空</t>
+  </si>
+  <si>
     <t>procedureline.WorkerInfo</t>
   </si>
   <si>
+    <t>procedureline.WorkerNull</t>
+  </si>
+  <si>
+    <t>工人空</t>
+  </si>
+  <si>
+    <t>##附加状态</t>
+  </si>
+  <si>
     <t>procedureline.AdditionalStatusOnAbilityDamageInfo</t>
   </si>
   <si>
@@ -229,6 +247,39 @@
     <t>status_alias</t>
   </si>
   <si>
+    <t>##流水工施法器</t>
+  </si>
+  <si>
+    <t>procedureline.HarmProbabilisticCastInfo</t>
+  </si>
+  <si>
+    <t>伤害时概率施法</t>
+  </si>
+  <si>
+    <t>造成伤害时, 有概率触发施法</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>触发概率, 0-1之间</t>
+  </si>
+  <si>
+    <t>procedureline.HealthRatioCastInfo</t>
+  </si>
+  <si>
+    <t>血线施法</t>
+  </si>
+  <si>
+    <t>比如血量低于30%时触发xxx技能</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>血量比例, 0-1之间</t>
+  </si>
+  <si>
     <t>behavior.Info</t>
   </si>
   <si>
@@ -574,13 +625,13 @@
     <t>地波斩伤害</t>
   </si>
   <si>
-    <t>harm_formulas</t>
-  </si>
-  <si>
-    <t>(list#sep=|),numeric.DamageFormulaInfo#sep=&gt;</t>
-  </si>
-  <si>
-    <t>伤害的配方(可造成多段伤害)</t>
+    <t>伤害的配方(可造成多段伤害)((list#sep=|),numeric.DamageFormulaInfo#sep=&gt;)</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>伤害次数</t>
   </si>
   <si>
     <t>internal_time</t>
@@ -589,6 +640,9 @@
     <t>internal_distance</t>
   </si>
   <si>
+    <t>collider_name</t>
+  </si>
+  <si>
     <t>##动作时间段</t>
   </si>
   <si>
@@ -685,9 +739,6 @@
     <t>剑魔的q</t>
   </si>
   <si>
-    <t>collider_name</t>
-  </si>
-  <si>
     <t>碰撞器名</t>
   </si>
   <si>
@@ -943,12 +994,6 @@
     <t>cast.Null</t>
   </si>
   <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>因为不能不填, 所以专门设置一个空的类型, 用来代表空</t>
-  </si>
-  <si>
     <t>cast.ControlCastInfo</t>
   </si>
   <si>
@@ -980,48 +1025,6 @@
   </si>
   <si>
     <t>隐藏的但需要持续释放的技能, 比如多数被动技能</t>
-  </si>
-  <si>
-    <t>cast.ConditionCastOfBehaviorInfo</t>
-  </si>
-  <si>
-    <t>只在条件符合时触发(自动型施法)(使用行为树来实现)</t>
-  </si>
-  <si>
-    <t>cast.ConditionCastOfWorkerInfo</t>
-  </si>
-  <si>
-    <t>只在条件符合时触发</t>
-  </si>
-  <si>
-    <t>cast.HarmProbabilisticCastInfo</t>
-  </si>
-  <si>
-    <t>伤害时概率触发</t>
-  </si>
-  <si>
-    <t>造成伤害时, 有概率触发施法</t>
-  </si>
-  <si>
-    <t>probability</t>
-  </si>
-  <si>
-    <t>触发概率, 0-1之间</t>
-  </si>
-  <si>
-    <t>cast.HealthRatioCastInfo</t>
-  </si>
-  <si>
-    <t>血线触发</t>
-  </si>
-  <si>
-    <t>比如血量低于30%时触发xxx技能</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>血量比例, 0-1之间</t>
   </si>
   <si>
     <t>drops.Info</t>
@@ -2120,7 +2123,7 @@
       <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="40.5" customWidth="1"/>
@@ -2432,7 +2435,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2546,39 +2549,39 @@
     </row>
     <row r="7" customFormat="1" spans="2:6">
       <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
         <v>348</v>
       </c>
-      <c r="C7" t="s">
-        <v>347</v>
-      </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:9">
       <c r="B9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2602,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -2705,7 +2708,7 @@
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2713,16 +2716,16 @@
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" t="s">
         <v>355</v>
       </c>
-      <c r="C7" t="s">
-        <v>354</v>
-      </c>
       <c r="E7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -2730,27 +2733,27 @@
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2774,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2885,46 +2888,46 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" t="s">
         <v>363</v>
       </c>
-      <c r="C7" t="s">
-        <v>362</v>
-      </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2939,20 +2942,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="13.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="33.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
     <col min="9" max="9" width="5.875" customWidth="1"/>
@@ -3060,7 +3063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="2:4">
+    <row r="8" customFormat="1" spans="2:6">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -3070,29 +3073,132 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="2:9">
-      <c r="B11" t="s">
+      <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1" spans="2:4">
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s">
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:6">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:1">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1" spans="2:9">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="2:2">
-      <c r="B26" s="4"/>
+    <row r="18" customFormat="1" spans="1:1">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1" spans="2:11">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="2:11">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:2">
+      <c r="B33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3106,15 +3212,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L210"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -3220,139 +3326,139 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="8:9">
       <c r="H9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3360,36 +3466,36 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" t="s">
-        <v>68</v>
-      </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3397,16 +3503,16 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3414,43 +3520,43 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -3458,33 +3564,33 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -3492,48 +3598,48 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -3541,15 +3647,15 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -3558,15 +3664,15 @@
         <v>40</v>
       </c>
       <c r="I68" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="I69" t="s">
         <v>46</v>
@@ -3574,19 +3680,19 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H71" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I71" t="s">
         <v>33</v>
@@ -3594,19 +3700,19 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="H74" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I74" t="s">
         <v>46</v>
@@ -3614,96 +3720,96 @@
     </row>
     <row r="75" spans="8:9">
       <c r="H75" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="I75" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
         <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="H77" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="I77" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K77" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="I79" t="s">
         <v>33</v>
       </c>
       <c r="K79" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
         <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="H81" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I81" t="s">
         <v>33</v>
       </c>
       <c r="K81" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
         <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="H83" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I83" t="s">
         <v>33</v>
@@ -3711,19 +3817,19 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="H85" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I85" t="s">
         <v>33</v>
@@ -3731,19 +3837,19 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="H87" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I87" t="s">
         <v>33</v>
@@ -3751,48 +3857,48 @@
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="H89" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="I89" t="s">
         <v>33</v>
       </c>
       <c r="K89" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="H91" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="I91" t="s">
         <v>33</v>
       </c>
       <c r="K91" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="8:11">
@@ -3800,106 +3906,106 @@
         <v>9</v>
       </c>
       <c r="I92" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K92" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H94" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="I94" t="s">
         <v>33</v>
       </c>
       <c r="K94" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="2:5">
       <c r="B98" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F102" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="H102" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="I102" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K102" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="8:9">
       <c r="H103" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I103" t="s">
         <v>33</v>
@@ -3907,7 +4013,7 @@
     </row>
     <row r="104" spans="8:9">
       <c r="H104" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="I104" t="s">
         <v>33</v>
@@ -3915,52 +4021,52 @@
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D106" t="s">
         <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H106" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="I106" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="8:11">
       <c r="H107" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="I107" t="s">
         <v>33</v>
       </c>
       <c r="K107" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="8:11">
       <c r="H108" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="I108" t="s">
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="8:9">
       <c r="H109" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I109" t="s">
         <v>33</v>
@@ -3968,7 +4074,7 @@
     </row>
     <row r="110" spans="8:9">
       <c r="H110" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="I110" t="s">
         <v>33</v>
@@ -3976,63 +4082,63 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" t="s">
         <v>167</v>
       </c>
-      <c r="C112" t="s">
-        <v>150</v>
-      </c>
       <c r="D112" t="s">
         <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F112" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="H112" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="I112" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="8:11">
       <c r="H113" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="I113" t="s">
         <v>33</v>
       </c>
       <c r="K113" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="8:11">
       <c r="H114" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="I114" t="s">
         <v>46</v>
       </c>
       <c r="K114" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="8:11">
       <c r="H115" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="I115" t="s">
         <v>46</v>
       </c>
       <c r="K115" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="8:9">
       <c r="H116" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I116" t="s">
         <v>33</v>
@@ -4040,7 +4146,7 @@
     </row>
     <row r="117" spans="8:9">
       <c r="H117" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="I117" t="s">
         <v>33</v>
@@ -4048,41 +4154,41 @@
     </row>
     <row r="119" spans="2:9">
       <c r="B119" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s">
+        <v>190</v>
+      </c>
+      <c r="F119" t="s">
+        <v>191</v>
+      </c>
+      <c r="H119" t="s">
         <v>172</v>
       </c>
-      <c r="C119" t="s">
-        <v>150</v>
-      </c>
-      <c r="D119" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="I119" t="s">
         <v>173</v>
-      </c>
-      <c r="F119" t="s">
-        <v>174</v>
-      </c>
-      <c r="H119" t="s">
-        <v>155</v>
-      </c>
-      <c r="I119" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="120" spans="8:11">
       <c r="H120" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
       </c>
       <c r="K120" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="I121" t="s">
         <v>46</v>
@@ -4090,646 +4196,689 @@
     </row>
     <row r="124" spans="2:11">
       <c r="B124" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H124" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I124" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K124" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="125" spans="8:9">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11">
       <c r="H125" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>84</v>
+      </c>
+      <c r="K125" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="8:9">
       <c r="H126" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I126" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134" t="s">
-        <v>183</v>
-      </c>
-      <c r="C134" t="s">
-        <v>106</v>
-      </c>
-      <c r="D134" t="s">
-        <v>22</v>
-      </c>
-      <c r="H134" t="s">
+    <row r="127" spans="8:9">
+      <c r="H127" t="s">
+        <v>198</v>
+      </c>
+      <c r="I127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9">
+      <c r="H128" t="s">
+        <v>180</v>
+      </c>
+      <c r="I128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9">
+      <c r="H129" t="s">
+        <v>199</v>
+      </c>
+      <c r="I129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="8:9">
+      <c r="H130" t="s">
+        <v>175</v>
+      </c>
+      <c r="I130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="8:9">
+      <c r="H131" t="s">
+        <v>176</v>
+      </c>
+      <c r="I131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" t="s">
+        <v>201</v>
+      </c>
+      <c r="C135" t="s">
+        <v>123</v>
+      </c>
+      <c r="D135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s">
         <v>40</v>
       </c>
-      <c r="I134" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="8:9">
-      <c r="H135" t="s">
-        <v>184</v>
-      </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="I136" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="2:11">
-      <c r="B138" t="s">
-        <v>186</v>
-      </c>
-      <c r="C138" t="s">
-        <v>183</v>
-      </c>
-      <c r="D138" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" t="s">
+    <row r="137" spans="8:9">
+      <c r="H137" t="s">
+        <v>203</v>
+      </c>
+      <c r="I137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" t="s">
+        <v>204</v>
+      </c>
+      <c r="C139" t="s">
+        <v>201</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" t="s">
+        <v>205</v>
+      </c>
+      <c r="H139" t="s">
+        <v>206</v>
+      </c>
+      <c r="I139" t="s">
+        <v>84</v>
+      </c>
+      <c r="K139" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" t="s">
+        <v>201</v>
+      </c>
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s">
+        <v>209</v>
+      </c>
+      <c r="H141" t="s">
+        <v>210</v>
+      </c>
+      <c r="I141" t="s">
+        <v>211</v>
+      </c>
+      <c r="K141" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143" t="s">
+        <v>201</v>
+      </c>
+      <c r="D143" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" t="s">
+        <v>214</v>
+      </c>
+      <c r="H143" t="s">
         <v>187</v>
       </c>
-      <c r="H138" t="s">
-        <v>188</v>
-      </c>
-      <c r="I138" t="s">
-        <v>67</v>
-      </c>
-      <c r="K138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11">
-      <c r="B140" t="s">
-        <v>190</v>
-      </c>
-      <c r="C140" t="s">
-        <v>183</v>
-      </c>
-      <c r="D140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" t="s">
-        <v>191</v>
-      </c>
-      <c r="H140" t="s">
-        <v>192</v>
-      </c>
-      <c r="I140" t="s">
-        <v>193</v>
-      </c>
-      <c r="K140" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="B142" t="s">
-        <v>195</v>
-      </c>
-      <c r="C142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D142" t="s">
-        <v>22</v>
-      </c>
-      <c r="E142" t="s">
-        <v>196</v>
-      </c>
-      <c r="H142" t="s">
-        <v>170</v>
-      </c>
-      <c r="I142" t="s">
+      <c r="I143" t="s">
         <v>46</v>
       </c>
-      <c r="K142" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" t="s">
-        <v>198</v>
-      </c>
-      <c r="C144" t="s">
-        <v>183</v>
-      </c>
-      <c r="D144" t="s">
-        <v>22</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="K143" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" t="s">
+        <v>201</v>
+      </c>
+      <c r="D147" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" t="s">
+        <v>201</v>
+      </c>
+      <c r="D149" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" t="s">
+        <v>221</v>
+      </c>
+      <c r="H149" t="s">
+        <v>158</v>
+      </c>
+      <c r="I149" t="s">
+        <v>33</v>
+      </c>
+      <c r="K149" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>222</v>
+      </c>
+      <c r="C151" t="s">
+        <v>201</v>
+      </c>
+      <c r="D151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" t="s">
+        <v>223</v>
+      </c>
+      <c r="C153" t="s">
+        <v>222</v>
+      </c>
+      <c r="D153" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" t="s">
+        <v>224</v>
+      </c>
+      <c r="H153" t="s">
+        <v>172</v>
+      </c>
+      <c r="I153" t="s">
+        <v>173</v>
+      </c>
+      <c r="K153" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="8:11">
+      <c r="H154" t="s">
+        <v>225</v>
+      </c>
+      <c r="I154" t="s">
+        <v>46</v>
+      </c>
+      <c r="K154" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" t="s">
+        <v>227</v>
+      </c>
+      <c r="C156" t="s">
+        <v>222</v>
+      </c>
+      <c r="D156" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" t="s">
+        <v>228</v>
+      </c>
+      <c r="H156" t="s">
+        <v>172</v>
+      </c>
+      <c r="I156" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="8:11">
+      <c r="H157" t="s">
+        <v>225</v>
+      </c>
+      <c r="I157" t="s">
+        <v>46</v>
+      </c>
+      <c r="K157" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9">
+      <c r="B159" t="s">
+        <v>229</v>
+      </c>
+      <c r="C159" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" t="s">
+        <v>230</v>
+      </c>
+      <c r="F159" t="s">
+        <v>231</v>
+      </c>
+      <c r="H159" t="s">
+        <v>172</v>
+      </c>
+      <c r="I159" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="8:11">
+      <c r="H160" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" t="s">
-        <v>200</v>
-      </c>
-      <c r="C146" t="s">
-        <v>183</v>
-      </c>
-      <c r="D146" t="s">
-        <v>22</v>
-      </c>
-      <c r="E146" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" t="s">
-        <v>202</v>
-      </c>
-      <c r="C148" t="s">
-        <v>183</v>
-      </c>
-      <c r="D148" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H148" t="s">
-        <v>141</v>
-      </c>
-      <c r="I148" t="s">
-        <v>33</v>
-      </c>
-      <c r="K148" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" t="s">
-        <v>204</v>
-      </c>
-      <c r="C150" t="s">
-        <v>183</v>
-      </c>
-      <c r="D150" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" t="s">
-        <v>205</v>
-      </c>
-      <c r="C152" t="s">
-        <v>204</v>
-      </c>
-      <c r="D152" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" t="s">
-        <v>206</v>
-      </c>
-      <c r="H152" t="s">
-        <v>155</v>
-      </c>
-      <c r="I152" t="s">
-        <v>156</v>
-      </c>
-      <c r="K152" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="153" spans="8:11">
-      <c r="H153" t="s">
-        <v>207</v>
-      </c>
-      <c r="I153" t="s">
-        <v>46</v>
-      </c>
-      <c r="K153" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="B155" t="s">
-        <v>209</v>
-      </c>
-      <c r="C155" t="s">
-        <v>204</v>
-      </c>
-      <c r="D155" t="s">
-        <v>22</v>
-      </c>
-      <c r="E155" t="s">
-        <v>210</v>
-      </c>
-      <c r="H155" t="s">
-        <v>155</v>
-      </c>
-      <c r="I155" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="156" spans="8:11">
-      <c r="H156" t="s">
-        <v>207</v>
-      </c>
-      <c r="I156" t="s">
-        <v>46</v>
-      </c>
-      <c r="K156" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9">
-      <c r="B158" t="s">
-        <v>211</v>
-      </c>
-      <c r="C158" t="s">
-        <v>204</v>
-      </c>
-      <c r="D158" t="s">
-        <v>22</v>
-      </c>
-      <c r="E158" t="s">
-        <v>212</v>
-      </c>
-      <c r="F158" t="s">
-        <v>213</v>
-      </c>
-      <c r="H158" t="s">
-        <v>155</v>
-      </c>
-      <c r="I158" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="8:11">
-      <c r="H159" t="s">
-        <v>214</v>
-      </c>
-      <c r="I159" t="s">
-        <v>33</v>
-      </c>
-      <c r="K159" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="160" spans="8:9">
-      <c r="H160" t="s">
-        <v>158</v>
       </c>
       <c r="I160" t="s">
         <v>33</v>
       </c>
+      <c r="K160" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="161" spans="8:9">
       <c r="H161" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I161" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
-      <c r="B163" t="s">
-        <v>216</v>
-      </c>
-      <c r="C163" t="s">
-        <v>204</v>
-      </c>
-      <c r="D163" t="s">
-        <v>22</v>
-      </c>
-      <c r="E163" t="s">
-        <v>217</v>
-      </c>
-      <c r="F163" t="s">
-        <v>213</v>
-      </c>
-      <c r="H163" t="s">
-        <v>155</v>
-      </c>
-      <c r="I163" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="164" spans="8:9">
+    <row r="162" spans="8:9">
+      <c r="H162" t="s">
+        <v>176</v>
+      </c>
+      <c r="I162" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9">
+      <c r="B164" t="s">
+        <v>233</v>
+      </c>
+      <c r="C164" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" t="s">
+        <v>234</v>
+      </c>
+      <c r="F164" t="s">
+        <v>231</v>
+      </c>
       <c r="H164" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I164" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="8:9">
       <c r="H165" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I165" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="2:9">
-      <c r="B167" t="s">
-        <v>218</v>
-      </c>
-      <c r="C167" t="s">
-        <v>204</v>
-      </c>
-      <c r="D167" t="s">
-        <v>22</v>
-      </c>
-      <c r="E167" t="s">
-        <v>219</v>
-      </c>
-      <c r="F167" t="s">
-        <v>213</v>
-      </c>
-      <c r="H167" t="s">
-        <v>155</v>
-      </c>
-      <c r="I167" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="168" spans="8:9">
+    <row r="166" spans="8:9">
+      <c r="H166" t="s">
+        <v>176</v>
+      </c>
+      <c r="I166" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9">
+      <c r="B168" t="s">
+        <v>235</v>
+      </c>
+      <c r="C168" t="s">
+        <v>222</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" t="s">
+        <v>236</v>
+      </c>
+      <c r="F168" t="s">
+        <v>231</v>
+      </c>
       <c r="H168" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="I168" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="8:9">
       <c r="H169" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I169" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11">
-      <c r="B175" t="s">
-        <v>221</v>
-      </c>
-      <c r="C175" t="s">
-        <v>62</v>
-      </c>
-      <c r="D175" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" t="s">
-        <v>222</v>
-      </c>
-      <c r="H175" t="s">
-        <v>66</v>
-      </c>
-      <c r="I175" t="s">
-        <v>67</v>
-      </c>
-      <c r="K175" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="176" spans="8:11">
+    <row r="170" spans="8:9">
+      <c r="H170" t="s">
+        <v>176</v>
+      </c>
+      <c r="I170" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11">
+      <c r="B176" t="s">
+        <v>238</v>
+      </c>
+      <c r="C176" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" t="s">
+        <v>239</v>
+      </c>
       <c r="H176" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I176" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K176" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6">
-      <c r="B178" t="s">
-        <v>225</v>
-      </c>
-      <c r="C178" t="s">
-        <v>221</v>
-      </c>
-      <c r="D178" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" t="s">
-        <v>226</v>
-      </c>
-      <c r="F178" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6">
-      <c r="B180" t="s">
-        <v>228</v>
-      </c>
-      <c r="C180" t="s">
-        <v>221</v>
-      </c>
-      <c r="D180" t="s">
-        <v>22</v>
-      </c>
-      <c r="E180" t="s">
-        <v>229</v>
-      </c>
-      <c r="F180" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6">
-      <c r="B182" t="s">
-        <v>231</v>
-      </c>
-      <c r="C182" t="s">
-        <v>221</v>
-      </c>
-      <c r="D182" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" t="s">
-        <v>232</v>
-      </c>
-      <c r="F182" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4">
-      <c r="B188" t="s">
-        <v>235</v>
-      </c>
-      <c r="C188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="8:11">
+      <c r="H177" t="s">
         <v>85</v>
       </c>
-      <c r="D188" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5">
-      <c r="B190" t="s">
-        <v>236</v>
-      </c>
-      <c r="C190" t="s">
-        <v>235</v>
-      </c>
-      <c r="D190" t="s">
-        <v>22</v>
-      </c>
-      <c r="E190" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5">
-      <c r="B192" t="s">
+      <c r="I177" t="s">
+        <v>84</v>
+      </c>
+      <c r="K177" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" t="s">
+        <v>242</v>
+      </c>
+      <c r="C179" t="s">
         <v>238</v>
       </c>
-      <c r="C192" t="s">
-        <v>235</v>
-      </c>
-      <c r="D192" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5">
-      <c r="B194" t="s">
-        <v>240</v>
-      </c>
-      <c r="C194" t="s">
-        <v>235</v>
-      </c>
-      <c r="D194" t="s">
-        <v>22</v>
-      </c>
-      <c r="E194" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5">
-      <c r="B196" t="s">
-        <v>242</v>
-      </c>
-      <c r="C196" t="s">
-        <v>235</v>
-      </c>
-      <c r="D196" t="s">
-        <v>22</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="198" spans="2:5">
-      <c r="B198" t="s">
+      <c r="F179" t="s">
         <v>244</v>
       </c>
-      <c r="C198" t="s">
-        <v>235</v>
-      </c>
-      <c r="D198" t="s">
-        <v>22</v>
-      </c>
-      <c r="E198" t="s">
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="200" spans="2:11">
-      <c r="B200" t="s">
+      <c r="C181" t="s">
+        <v>238</v>
+      </c>
+      <c r="D181" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181" t="s">
         <v>246</v>
       </c>
-      <c r="C200" t="s">
-        <v>235</v>
-      </c>
-      <c r="D200" t="s">
-        <v>22</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="F181" t="s">
         <v>247</v>
       </c>
-      <c r="H200" t="s">
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" t="s">
         <v>248</v>
       </c>
-      <c r="I200" t="s">
+      <c r="C183" t="s">
+        <v>238</v>
+      </c>
+      <c r="D183" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" t="s">
+        <v>249</v>
+      </c>
+      <c r="F183" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" t="s">
+        <v>252</v>
+      </c>
+      <c r="C189" t="s">
+        <v>102</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" t="s">
+        <v>253</v>
+      </c>
+      <c r="C191" t="s">
+        <v>252</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
+        <v>255</v>
+      </c>
+      <c r="C193" t="s">
+        <v>252</v>
+      </c>
+      <c r="D193" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
+        <v>257</v>
+      </c>
+      <c r="C195" t="s">
+        <v>252</v>
+      </c>
+      <c r="D195" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
+        <v>259</v>
+      </c>
+      <c r="C197" t="s">
+        <v>252</v>
+      </c>
+      <c r="D197" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" t="s">
+        <v>261</v>
+      </c>
+      <c r="C199" t="s">
+        <v>252</v>
+      </c>
+      <c r="D199" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11">
+      <c r="B201" t="s">
+        <v>263</v>
+      </c>
+      <c r="C201" t="s">
+        <v>252</v>
+      </c>
+      <c r="D201" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" t="s">
+        <v>264</v>
+      </c>
+      <c r="H201" t="s">
+        <v>265</v>
+      </c>
+      <c r="I201" t="s">
         <v>46</v>
       </c>
-      <c r="K200" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="B206" t="s">
-        <v>251</v>
-      </c>
-      <c r="C206" t="s">
-        <v>85</v>
-      </c>
-      <c r="D206" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5">
-      <c r="B208" t="s">
-        <v>252</v>
-      </c>
-      <c r="C208" t="s">
-        <v>251</v>
-      </c>
-      <c r="D208" t="s">
-        <v>22</v>
-      </c>
-      <c r="E208" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5">
-      <c r="B210" t="s">
-        <v>254</v>
-      </c>
-      <c r="C210" t="s">
-        <v>251</v>
-      </c>
-      <c r="D210" t="s">
-        <v>22</v>
-      </c>
-      <c r="E210" t="s">
-        <v>255</v>
+      <c r="K201" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
+        <v>268</v>
+      </c>
+      <c r="C207" t="s">
+        <v>102</v>
+      </c>
+      <c r="D207" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" t="s">
+        <v>269</v>
+      </c>
+      <c r="C209" t="s">
+        <v>268</v>
+      </c>
+      <c r="D209" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" t="s">
+        <v>271</v>
+      </c>
+      <c r="C211" t="s">
+        <v>268</v>
+      </c>
+      <c r="D211" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4746,13 +4895,13 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -4858,27 +5007,27 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -4886,7 +5035,7 @@
     </row>
     <row r="10" spans="8:9">
       <c r="H10" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
@@ -4894,114 +5043,114 @@
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="8:9">
       <c r="H15" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="8:9">
       <c r="H18" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="I18" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="I19" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="H21" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="I22" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="I23" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="8:9">
       <c r="H24" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="I24" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5024,7 +5173,7 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -5131,35 +5280,35 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
@@ -5167,13 +5316,13 @@
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="I12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K12" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5196,7 +5345,7 @@
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -5302,27 +5451,27 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5343,7 +5492,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
@@ -5449,7 +5598,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -5457,10 +5606,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -5468,19 +5617,19 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -5491,19 +5640,19 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -5524,13 +5673,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
@@ -5636,13 +5785,13 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -5650,154 +5799,80 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="I10" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="K10" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="8:11">
       <c r="H11" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K11" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>313</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>318</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H27" t="s">
-        <v>320</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" t="s">
-        <v>322</v>
-      </c>
-      <c r="C29" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>323</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H29" t="s">
-        <v>325</v>
-      </c>
-      <c r="I29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" t="s">
-        <v>326</v>
-      </c>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5817,7 +5892,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -5923,7 +5998,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -5931,150 +6006,150 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
         <v>328</v>
       </c>
-      <c r="C7" t="s">
-        <v>327</v>
-      </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="8:9">
       <c r="H8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="K15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I20" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/__beans__.xlsx
+++ b/Luban/ExcelConfig/Datas/__beans__.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="375">
   <si>
     <t>##var</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>血量比例, 0-1之间</t>
+  </si>
+  <si>
+    <t>procedureline.ProbabilisticRepetitionCastInfo</t>
+  </si>
+  <si>
+    <t>概率重复施法</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
   </si>
   <si>
     <t>behavior.Info</t>
@@ -2541,7 +2550,7 @@
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2549,39 +2558,39 @@
     </row>
     <row r="7" customFormat="1" spans="2:6">
       <c r="B7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:9">
       <c r="B9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2708,7 +2717,7 @@
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2716,16 +2725,16 @@
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -2733,27 +2742,27 @@
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="I10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2880,7 +2889,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -2888,46 +2897,46 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" t="s">
         <v>366</v>
       </c>
-      <c r="C10" t="s">
-        <v>363</v>
-      </c>
       <c r="E10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +2954,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3195,6 +3204,29 @@
       <c r="J22"/>
       <c r="K22" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:2">
@@ -3326,139 +3358,139 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="8:9">
       <c r="H9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3466,36 +3498,36 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3503,16 +3535,16 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3520,43 +3552,43 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -3564,33 +3596,33 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
         <v>114</v>
       </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -3598,48 +3630,48 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
         <v>123</v>
-      </c>
-      <c r="C64" t="s">
-        <v>120</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -3647,15 +3679,15 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -3664,15 +3696,15 @@
         <v>40</v>
       </c>
       <c r="I68" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I69" t="s">
         <v>46</v>
@@ -3680,19 +3712,19 @@
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" t="s">
         <v>128</v>
       </c>
-      <c r="C71" t="s">
-        <v>125</v>
-      </c>
       <c r="D71" t="s">
         <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I71" t="s">
         <v>33</v>
@@ -3700,19 +3732,19 @@
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H74" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I74" t="s">
         <v>46</v>
@@ -3720,70 +3752,70 @@
     </row>
     <row r="75" spans="8:9">
       <c r="H75" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D77" t="s">
         <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H77" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I77" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I79" t="s">
         <v>33</v>
       </c>
       <c r="K79" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D81" t="s">
         <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H81" t="s">
         <v>67</v>
@@ -3792,21 +3824,21 @@
         <v>33</v>
       </c>
       <c r="K81" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D83" t="s">
         <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H83" t="s">
         <v>67</v>
@@ -3817,16 +3849,16 @@
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
         <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H85" t="s">
         <v>67</v>
@@ -3837,16 +3869,16 @@
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H87" t="s">
         <v>67</v>
@@ -3857,48 +3889,48 @@
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H89" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I89" t="s">
         <v>33</v>
       </c>
       <c r="K89" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H91" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I91" t="s">
         <v>33</v>
       </c>
       <c r="K91" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="8:11">
@@ -3906,106 +3938,106 @@
         <v>9</v>
       </c>
       <c r="I92" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>165</v>
+      </c>
+      <c r="H94" t="s">
         <v>161</v>
-      </c>
-      <c r="C94" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" t="s">
-        <v>162</v>
-      </c>
-      <c r="H94" t="s">
-        <v>158</v>
       </c>
       <c r="I94" t="s">
         <v>33</v>
       </c>
       <c r="K94" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="2:5">
       <c r="B98" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
         <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C100" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D100" t="s">
         <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F102" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H102" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I102" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K102" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="8:9">
       <c r="H103" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I103" t="s">
         <v>33</v>
@@ -4013,7 +4045,7 @@
     </row>
     <row r="104" spans="8:9">
       <c r="H104" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I104" t="s">
         <v>33</v>
@@ -4021,52 +4053,52 @@
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D106" t="s">
         <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F106" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H106" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I106" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="8:11">
       <c r="H107" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I107" t="s">
         <v>33</v>
       </c>
       <c r="K107" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="8:11">
       <c r="H108" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I108" t="s">
         <v>46</v>
       </c>
       <c r="K108" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="8:9">
       <c r="H109" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I109" t="s">
         <v>33</v>
@@ -4074,7 +4106,7 @@
     </row>
     <row r="110" spans="8:9">
       <c r="H110" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I110" t="s">
         <v>33</v>
@@ -4082,63 +4114,63 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C112" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F112" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H112" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I112" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="8:11">
       <c r="H113" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I113" t="s">
         <v>33</v>
       </c>
       <c r="K113" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="8:11">
       <c r="H114" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I114" t="s">
         <v>46</v>
       </c>
       <c r="K114" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="8:11">
       <c r="H115" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I115" t="s">
         <v>46</v>
       </c>
       <c r="K115" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="8:9">
       <c r="H116" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I116" t="s">
         <v>33</v>
@@ -4146,7 +4178,7 @@
     </row>
     <row r="117" spans="8:9">
       <c r="H117" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I117" t="s">
         <v>33</v>
@@ -4154,41 +4186,41 @@
     </row>
     <row r="119" spans="2:9">
       <c r="B119" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C119" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F119" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H119" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I119" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="8:11">
       <c r="H120" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
       </c>
       <c r="K120" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I121" t="s">
         <v>46</v>
@@ -4196,41 +4228,41 @@
     </row>
     <row r="124" spans="2:11">
       <c r="B124" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C124" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H124" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I124" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K124" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="8:11">
       <c r="H125" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I125" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K125" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="8:9">
       <c r="H126" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I126" t="s">
         <v>46</v>
@@ -4238,7 +4270,7 @@
     </row>
     <row r="127" spans="8:9">
       <c r="H127" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I127" t="s">
         <v>46</v>
@@ -4246,7 +4278,7 @@
     </row>
     <row r="128" spans="8:9">
       <c r="H128" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I128" t="s">
         <v>33</v>
@@ -4254,7 +4286,7 @@
     </row>
     <row r="129" spans="8:9">
       <c r="H129" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I129" t="s">
         <v>33</v>
@@ -4262,7 +4294,7 @@
     </row>
     <row r="130" spans="8:9">
       <c r="H130" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I130" t="s">
         <v>33</v>
@@ -4270,7 +4302,7 @@
     </row>
     <row r="131" spans="8:9">
       <c r="H131" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I131" t="s">
         <v>33</v>
@@ -4278,15 +4310,15 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="2:9">
       <c r="B135" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D135" t="s">
         <v>22</v>
@@ -4295,12 +4327,12 @@
         <v>40</v>
       </c>
       <c r="I135" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I136" t="s">
         <v>46</v>
@@ -4308,7 +4340,7 @@
     </row>
     <row r="137" spans="8:9">
       <c r="H137" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I137" t="s">
         <v>46</v>
@@ -4316,130 +4348,130 @@
     </row>
     <row r="139" spans="2:11">
       <c r="B139" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" t="s">
         <v>204</v>
       </c>
-      <c r="C139" t="s">
-        <v>201</v>
-      </c>
       <c r="D139" t="s">
         <v>22</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H139" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I139" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K139" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C141" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D141" t="s">
         <v>22</v>
       </c>
       <c r="E141" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H141" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I141" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K141" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C143" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D143" t="s">
         <v>22</v>
       </c>
       <c r="E143" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H143" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I143" t="s">
         <v>46</v>
       </c>
       <c r="K143" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145" spans="2:5">
       <c r="B145" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D145" t="s">
         <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="2:5">
       <c r="B147" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D147" t="s">
         <v>22</v>
       </c>
       <c r="E147" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C149" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D149" t="s">
         <v>22</v>
       </c>
       <c r="E149" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H149" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I149" t="s">
         <v>33</v>
       </c>
       <c r="K149" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C151" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D151" t="s">
         <v>22</v>
@@ -4447,106 +4479,106 @@
     </row>
     <row r="153" spans="2:11">
       <c r="B153" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C153" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D153" t="s">
         <v>22</v>
       </c>
       <c r="E153" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H153" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I153" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K153" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="8:11">
       <c r="H154" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I154" t="s">
         <v>46</v>
       </c>
       <c r="K154" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="156" spans="2:9">
       <c r="B156" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C156" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D156" t="s">
         <v>22</v>
       </c>
       <c r="E156" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H156" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I156" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="8:11">
       <c r="H157" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I157" t="s">
         <v>46</v>
       </c>
       <c r="K157" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="2:9">
       <c r="B159" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C159" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D159" t="s">
         <v>22</v>
       </c>
       <c r="E159" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F159" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H159" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I159" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="8:11">
       <c r="H160" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I160" t="s">
         <v>33</v>
       </c>
       <c r="K160" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="8:9">
       <c r="H161" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I161" t="s">
         <v>33</v>
@@ -4554,7 +4586,7 @@
     </row>
     <row r="162" spans="8:9">
       <c r="H162" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I162" t="s">
         <v>33</v>
@@ -4562,30 +4594,30 @@
     </row>
     <row r="164" spans="2:9">
       <c r="B164" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D164" t="s">
         <v>22</v>
       </c>
       <c r="E164" t="s">
+        <v>237</v>
+      </c>
+      <c r="F164" t="s">
         <v>234</v>
       </c>
-      <c r="F164" t="s">
-        <v>231</v>
-      </c>
       <c r="H164" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I164" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="8:9">
       <c r="H165" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I165" t="s">
         <v>33</v>
@@ -4593,7 +4625,7 @@
     </row>
     <row r="166" spans="8:9">
       <c r="H166" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I166" t="s">
         <v>33</v>
@@ -4601,30 +4633,30 @@
     </row>
     <row r="168" spans="2:9">
       <c r="B168" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C168" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D168" t="s">
         <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F168" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H168" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I168" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="8:9">
       <c r="H169" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I169" t="s">
         <v>33</v>
@@ -4632,7 +4664,7 @@
     </row>
     <row r="170" spans="8:9">
       <c r="H170" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I170" t="s">
         <v>33</v>
@@ -4640,105 +4672,105 @@
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="2:11">
       <c r="B176" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D176" t="s">
         <v>22</v>
       </c>
       <c r="F176" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H176" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I176" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K176" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="8:11">
       <c r="H177" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I177" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K177" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D179" t="s">
         <v>22</v>
       </c>
       <c r="E179" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F179" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C181" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D181" t="s">
         <v>22</v>
       </c>
       <c r="E181" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F181" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C183" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D183" t="s">
         <v>22</v>
       </c>
       <c r="E183" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F183" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C189" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D189" t="s">
         <v>22</v>
@@ -4746,108 +4778,108 @@
     </row>
     <row r="191" spans="2:5">
       <c r="B191" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C191" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D191" t="s">
         <v>22</v>
       </c>
       <c r="E191" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="2:5">
       <c r="B193" t="s">
+        <v>258</v>
+      </c>
+      <c r="C193" t="s">
         <v>255</v>
       </c>
-      <c r="C193" t="s">
-        <v>252</v>
-      </c>
       <c r="D193" t="s">
         <v>22</v>
       </c>
       <c r="E193" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C195" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D195" t="s">
         <v>22</v>
       </c>
       <c r="E195" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C197" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D197" t="s">
         <v>22</v>
       </c>
       <c r="E197" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="2:5">
       <c r="B199" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C199" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D199" t="s">
         <v>22</v>
       </c>
       <c r="E199" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="2:11">
       <c r="B201" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C201" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D201" t="s">
         <v>22</v>
       </c>
       <c r="E201" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H201" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I201" t="s">
         <v>46</v>
       </c>
       <c r="K201" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C207" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D207" t="s">
         <v>22</v>
@@ -4855,30 +4887,30 @@
     </row>
     <row r="209" spans="2:5">
       <c r="B209" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C209" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D209" t="s">
         <v>22</v>
       </c>
       <c r="E209" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" t="s">
+        <v>274</v>
+      </c>
+      <c r="C211" t="s">
         <v>271</v>
       </c>
-      <c r="C211" t="s">
-        <v>268</v>
-      </c>
       <c r="D211" t="s">
         <v>22</v>
       </c>
       <c r="E211" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5007,27 +5039,27 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
@@ -5035,7 +5067,7 @@
     </row>
     <row r="10" spans="8:9">
       <c r="H10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
@@ -5043,114 +5075,114 @@
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="8:9">
       <c r="H15" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="8:9">
       <c r="H18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I19" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="H21" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" t="s">
         <v>290</v>
-      </c>
-      <c r="I21" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I22" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I23" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="8:9">
       <c r="H24" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5280,35 +5312,35 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
@@ -5316,13 +5348,13 @@
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5451,27 +5483,27 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5630,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -5606,10 +5638,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -5617,19 +5649,19 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -5640,19 +5672,19 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -5785,13 +5817,13 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -5799,10 +5831,10 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -5816,56 +5848,56 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" t="s">
         <v>317</v>
       </c>
-      <c r="C10" t="s">
-        <v>314</v>
-      </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="8:11">
       <c r="H11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K11" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="6:6">
@@ -5998,7 +6030,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -6006,117 +6038,117 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="8:9">
       <c r="H8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K15" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="8:11">
@@ -6127,29 +6159,29 @@
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/__beans__.xlsx
+++ b/Luban/ExcelConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Behavior" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drops" sheetId="13" r:id="rId9"/>
     <sheet name="Pickable" sheetId="15" r:id="rId10"/>
     <sheet name="Adventure" sheetId="17" r:id="rId11"/>
-    <sheet name="Appearance" sheetId="18" r:id="rId12"/>
+    <sheet name="Math" sheetId="19" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Behavior!#REF!</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="390">
   <si>
     <t>##var</t>
   </si>
@@ -556,6 +556,51 @@
     <t>timeline.TsHarmInfo</t>
   </si>
   <si>
+    <t>timeline.HarmOfColliderInfo</t>
+  </si>
+  <si>
+    <t>碰撞伤害</t>
+  </si>
+  <si>
+    <t>剑魔的q</t>
+  </si>
+  <si>
+    <t>collider_name</t>
+  </si>
+  <si>
+    <t>碰撞器名</t>
+  </si>
+  <si>
+    <t>timeline.HarmOfSphereColliderInfo</t>
+  </si>
+  <si>
+    <t>球体碰撞伤害</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>hmath.Vector3#sep=`</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>timeline.HarmOfBoxColliderInfo</t>
+  </si>
+  <si>
+    <t>盒体碰撞伤害</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>##status</t>
+  </si>
+  <si>
+    <t>timeline.TsStatusHarmInfo</t>
+  </si>
+  <si>
     <t>timeline.LiuXueInfo</t>
   </si>
   <si>
@@ -574,33 +619,6 @@
     <t>燃烧</t>
   </si>
   <si>
-    <t>timeline.HarmOfColliderInfo</t>
-  </si>
-  <si>
-    <t>碰撞伤害</t>
-  </si>
-  <si>
-    <t>剑魔的q</t>
-  </si>
-  <si>
-    <t>collider_name</t>
-  </si>
-  <si>
-    <t>碰撞器名</t>
-  </si>
-  <si>
-    <t>timeline.HarmOfSphereColliderInfo</t>
-  </si>
-  <si>
-    <t>球体碰撞伤害</t>
-  </si>
-  <si>
-    <t>timeline.HarmOfBoxColliderInfo</t>
-  </si>
-  <si>
-    <t>盒体碰撞伤害</t>
-  </si>
-  <si>
     <t>######阶段线</t>
   </si>
   <si>
@@ -829,7 +847,46 @@
     <t>工人空</t>
   </si>
   <si>
-    <t>##附加状态</t>
+    <t>##施法</t>
+  </si>
+  <si>
+    <t>procedureline.CastWorkerInfo</t>
+  </si>
+  <si>
+    <t>procedureline.CastWorkerNull</t>
+  </si>
+  <si>
+    <t>施法工人空</t>
+  </si>
+  <si>
+    <t>procedureline.HarmProbabilisticCastInfo</t>
+  </si>
+  <si>
+    <t>伤害时概率施法</t>
+  </si>
+  <si>
+    <t>造成伤害时, 有概率触发施法</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>触发概率, 0-1之间</t>
+  </si>
+  <si>
+    <t>procedureline.HealthRatioCastInfo</t>
+  </si>
+  <si>
+    <t>血线施法</t>
+  </si>
+  <si>
+    <t>比如血量低于30%时触发xxx技能</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>血量比例, 0-1之间</t>
   </si>
   <si>
     <t>procedureline.AdditionalStatusOnAbilityDamageInfo</t>
@@ -838,37 +895,22 @@
     <t>当技能伤害时附加状态</t>
   </si>
   <si>
-    <t>##流水工施法器</t>
-  </si>
-  <si>
-    <t>procedureline.HarmProbabilisticCastInfo</t>
-  </si>
-  <si>
-    <t>伤害时概率施法</t>
-  </si>
-  <si>
-    <t>造成伤害时, 有概率触发施法</t>
-  </si>
-  <si>
-    <t>probability</t>
-  </si>
-  <si>
-    <t>触发概率, 0-1之间</t>
-  </si>
-  <si>
-    <t>procedureline.HealthRatioCastInfo</t>
-  </si>
-  <si>
-    <t>血线施法</t>
-  </si>
-  <si>
-    <t>比如血量低于30%时触发xxx技能</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>血量比例, 0-1之间</t>
+    <t>添加一个默认的状态</t>
+  </si>
+  <si>
+    <t>procedureline.AdditionalStatusOnAbilityDamageInfo2</t>
+  </si>
+  <si>
+    <t>当技能伤害时附加状态2</t>
+  </si>
+  <si>
+    <t>添加一个自定义的状态</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>action</t>
   </si>
   <si>
     <t>procedureline.ProbabilisticRepetitionCastInfo</t>
@@ -892,9 +934,6 @@
     <t>time_scale</t>
   </si>
   <si>
-    <t>duration</t>
-  </si>
-  <si>
     <t>aisles</t>
   </si>
   <si>
@@ -1042,7 +1081,7 @@
     <t>始终触发</t>
   </si>
   <si>
-    <t>隐藏的但需要持续释放的技能, 比如多数被动技能</t>
+    <t>隐藏的但需要持续释放的技能, 比如一些被动技能</t>
   </si>
   <si>
     <t>drops.Info</t>
@@ -1150,52 +1189,28 @@
     <t>(list#sep=|),CandidateInfo#sep=/</t>
   </si>
   <si>
-    <t>appearance.Info</t>
-  </si>
-  <si>
-    <t>appearance.AddressInfo</t>
-  </si>
-  <si>
-    <t>address_root</t>
-  </si>
-  <si>
-    <t>appearance.ActorInfo</t>
-  </si>
-  <si>
-    <t>model_address</t>
-  </si>
-  <si>
-    <t>appearance.AddressInfo#sep=,</t>
-  </si>
-  <si>
-    <t>anim_address</t>
-  </si>
-  <si>
-    <t>appearance.AbilityInfo</t>
-  </si>
-  <si>
-    <t>sound_charging_address</t>
-  </si>
-  <si>
-    <t>sound_cast_address</t>
-  </si>
-  <si>
-    <t>sound_hit_address</t>
-  </si>
-  <si>
-    <t>fx_hit_address</t>
-  </si>
-  <si>
-    <t>warn_board_address</t>
-  </si>
-  <si>
-    <t>appearance.BoltInfo</t>
-  </si>
-  <si>
-    <t>sound_fire_address</t>
-  </si>
-  <si>
-    <t>fx_fire_address</t>
+    <t>hmath.Info</t>
+  </si>
+  <si>
+    <t>hmath.Vector2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>hmath.Vector3</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>hmath.Vector4</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1833,6 +1848,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2154,12 +2172,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="I166" sqref="I162:I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2171,7 +2189,7 @@
     <col min="5" max="5" width="26.75" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19.9166666666667" customWidth="1"/>
     <col min="9" max="9" width="42.125" customWidth="1"/>
     <col min="10" max="10" width="6.625" customWidth="1"/>
     <col min="11" max="11" width="47.625" customWidth="1"/>
@@ -2582,7 +2600,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="1:9">
+      <c r="A74" s="5"/>
       <c r="B74" t="s">
         <v>78</v>
       </c>
@@ -3187,7 +3206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:9">
       <c r="B147" t="s">
         <v>171</v>
       </c>
@@ -3197,36 +3216,39 @@
       <c r="E147" t="s">
         <v>172</v>
       </c>
+      <c r="F147" t="s">
+        <v>173</v>
+      </c>
       <c r="H147" t="s">
         <v>125</v>
       </c>
       <c r="I147" t="s">
         <v>126</v>
       </c>
-      <c r="K147" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="148" spans="8:11">
       <c r="H148" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I148" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="K148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="2:9">
       <c r="B150" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C150" t="s">
         <v>170</v>
       </c>
       <c r="E150" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="F150" t="s">
+        <v>173</v>
       </c>
       <c r="H150" t="s">
         <v>125</v>
@@ -3235,287 +3257,329 @@
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="8:11">
+    <row r="151" spans="8:9">
       <c r="H151" t="s">
+        <v>178</v>
+      </c>
+      <c r="I151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="8:9">
+      <c r="H152" t="s">
+        <v>180</v>
+      </c>
+      <c r="I152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" t="s">
+        <v>181</v>
+      </c>
+      <c r="C154" t="s">
+        <v>170</v>
+      </c>
+      <c r="E154" t="s">
+        <v>182</v>
+      </c>
+      <c r="F154" t="s">
         <v>173</v>
       </c>
-      <c r="I151" t="s">
+      <c r="H154" t="s">
+        <v>125</v>
+      </c>
+      <c r="I154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="8:9">
+      <c r="H155" t="s">
+        <v>178</v>
+      </c>
+      <c r="I155" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="8:9">
+      <c r="H156" t="s">
+        <v>183</v>
+      </c>
+      <c r="I156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" t="s">
+        <v>185</v>
+      </c>
+      <c r="C160" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" t="s">
+        <v>186</v>
+      </c>
+      <c r="C162" t="s">
+        <v>185</v>
+      </c>
+      <c r="E162" t="s">
+        <v>187</v>
+      </c>
+      <c r="H162" t="s">
+        <v>125</v>
+      </c>
+      <c r="I162" t="s">
+        <v>126</v>
+      </c>
+      <c r="K162" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="8:11">
+      <c r="H163" t="s">
+        <v>188</v>
+      </c>
+      <c r="I163" t="s">
         <v>59</v>
       </c>
-      <c r="K151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="B153" t="s">
-        <v>177</v>
-      </c>
-      <c r="C153" t="s">
-        <v>170</v>
-      </c>
-      <c r="E153" t="s">
-        <v>178</v>
-      </c>
-      <c r="F153" t="s">
-        <v>179</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="K163" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9">
+      <c r="B165" t="s">
+        <v>190</v>
+      </c>
+      <c r="C165" t="s">
+        <v>185</v>
+      </c>
+      <c r="E165" t="s">
+        <v>191</v>
+      </c>
+      <c r="H165" t="s">
         <v>125</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I165" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="154" spans="8:11">
-      <c r="H154" t="s">
-        <v>180</v>
-      </c>
-      <c r="I154" t="s">
-        <v>77</v>
-      </c>
-      <c r="K154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="B156" t="s">
-        <v>182</v>
-      </c>
-      <c r="C156" t="s">
-        <v>170</v>
-      </c>
-      <c r="E156" t="s">
-        <v>183</v>
-      </c>
-      <c r="F156" t="s">
-        <v>179</v>
-      </c>
-      <c r="H156" t="s">
-        <v>125</v>
-      </c>
-      <c r="I156" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9">
-      <c r="B158" t="s">
-        <v>184</v>
-      </c>
-      <c r="C158" t="s">
-        <v>170</v>
-      </c>
-      <c r="E158" t="s">
-        <v>185</v>
-      </c>
-      <c r="F158" t="s">
-        <v>179</v>
-      </c>
-      <c r="H158" t="s">
-        <v>125</v>
-      </c>
-      <c r="I158" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11">
-      <c r="B164" t="s">
-        <v>187</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="166" spans="8:11">
+      <c r="H166" t="s">
+        <v>188</v>
+      </c>
+      <c r="I166" t="s">
+        <v>59</v>
+      </c>
+      <c r="K166" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" t="s">
+        <v>193</v>
+      </c>
+      <c r="C172" t="s">
         <v>21</v>
       </c>
-      <c r="F164" t="s">
-        <v>188</v>
-      </c>
-      <c r="H164" t="s">
+      <c r="F172" t="s">
+        <v>194</v>
+      </c>
+      <c r="H172" t="s">
         <v>25</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I172" t="s">
         <v>26</v>
       </c>
-      <c r="K164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="8:11">
-      <c r="H165" t="s">
+      <c r="K172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="8:11">
+      <c r="H173" t="s">
         <v>27</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I173" t="s">
         <v>26</v>
       </c>
-      <c r="K165" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6">
-      <c r="B167" t="s">
-        <v>191</v>
-      </c>
-      <c r="C167" t="s">
-        <v>187</v>
-      </c>
-      <c r="E167" t="s">
-        <v>192</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="K173" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" t="s">
+        <v>197</v>
+      </c>
+      <c r="C175" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="169" spans="2:6">
-      <c r="B169" t="s">
-        <v>194</v>
-      </c>
-      <c r="C169" t="s">
-        <v>187</v>
-      </c>
-      <c r="E169" t="s">
-        <v>195</v>
-      </c>
-      <c r="F169" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6">
-      <c r="B171" t="s">
-        <v>197</v>
-      </c>
-      <c r="C171" t="s">
-        <v>187</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="E175" t="s">
         <v>198</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F175" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="177" spans="2:6">
+      <c r="B177" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="177" spans="2:3">
-      <c r="B177" t="s">
+      <c r="C177" t="s">
+        <v>193</v>
+      </c>
+      <c r="E177" t="s">
         <v>201</v>
       </c>
-      <c r="C177" t="s">
+      <c r="F177" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" t="s">
+        <v>203</v>
+      </c>
+      <c r="C179" t="s">
+        <v>193</v>
+      </c>
+      <c r="E179" t="s">
+        <v>204</v>
+      </c>
+      <c r="F179" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" t="s">
+        <v>207</v>
+      </c>
+      <c r="C185" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5">
-      <c r="B179" t="s">
-        <v>202</v>
-      </c>
-      <c r="C179" t="s">
-        <v>201</v>
-      </c>
-      <c r="E179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" t="s">
-        <v>204</v>
-      </c>
-      <c r="C181" t="s">
-        <v>201</v>
-      </c>
-      <c r="E181" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5">
-      <c r="B183" t="s">
-        <v>206</v>
-      </c>
-      <c r="C183" t="s">
-        <v>201</v>
-      </c>
-      <c r="E183" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5">
-      <c r="B185" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" t="s">
-        <v>201</v>
-      </c>
-      <c r="E185" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="B187" t="s">
+        <v>208</v>
+      </c>
+      <c r="C187" t="s">
+        <v>207</v>
+      </c>
+      <c r="E187" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" t="s">
         <v>210</v>
       </c>
-      <c r="C187" t="s">
-        <v>201</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="C189" t="s">
+        <v>207</v>
+      </c>
+      <c r="E189" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="2:11">
-      <c r="B189" t="s">
+    <row r="191" spans="2:5">
+      <c r="B191" t="s">
         <v>212</v>
       </c>
-      <c r="C189" t="s">
-        <v>201</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="C191" t="s">
+        <v>207</v>
+      </c>
+      <c r="E191" t="s">
         <v>213</v>
       </c>
-      <c r="H189" t="s">
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
         <v>214</v>
       </c>
-      <c r="I189" t="s">
-        <v>59</v>
-      </c>
-      <c r="K189" t="s">
+      <c r="C193" t="s">
+        <v>207</v>
+      </c>
+      <c r="E193" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="195" spans="2:3">
-      <c r="B195" t="s">
+      <c r="C195" t="s">
+        <v>207</v>
+      </c>
+      <c r="E195" t="s">
         <v>217</v>
       </c>
-      <c r="C195" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5">
+    </row>
+    <row r="197" spans="2:11">
       <c r="B197" t="s">
         <v>218</v>
       </c>
       <c r="C197" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E197" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="199" spans="2:5">
-      <c r="B199" t="s">
+      <c r="H197" t="s">
         <v>220</v>
       </c>
-      <c r="C199" t="s">
-        <v>217</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="I197" t="s">
+        <v>59</v>
+      </c>
+      <c r="K197" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" t="s">
+        <v>223</v>
+      </c>
+      <c r="C203" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" t="s">
+        <v>224</v>
+      </c>
+      <c r="C205" t="s">
+        <v>223</v>
+      </c>
+      <c r="E205" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" t="s">
+        <v>226</v>
+      </c>
+      <c r="C207" t="s">
+        <v>223</v>
+      </c>
+      <c r="E207" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3642,35 +3706,35 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:6">
       <c r="B7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:9">
       <c r="B9" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E9" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="F9" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
@@ -3691,7 +3755,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3800,21 +3864,21 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="H7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -3822,7 +3886,7 @@
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -3830,19 +3894,19 @@
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H10" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="I10" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3921,7 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
@@ -3969,127 +4033,97 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="H7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="8:9">
-      <c r="H9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:9">
-      <c r="B12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C12" t="s">
-        <v>369</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:9">
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="8:9">
+      <c r="H11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="8:9">
       <c r="H12" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="8:9">
-      <c r="H13" t="s">
-        <v>375</v>
-      </c>
-      <c r="I13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" t="s">
-        <v>369</v>
-      </c>
-      <c r="H19" t="s">
-        <v>377</v>
-      </c>
-      <c r="I19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" t="s">
-        <v>378</v>
-      </c>
-      <c r="I20" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" t="s">
-        <v>379</v>
-      </c>
-      <c r="I21" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" t="s">
-        <v>380</v>
-      </c>
-      <c r="I22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" t="s">
-        <v>381</v>
-      </c>
-      <c r="I23" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:9">
+      <c r="B14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" t="s">
         <v>382</v>
       </c>
-      <c r="C27" t="s">
-        <v>369</v>
-      </c>
-      <c r="H27" t="s">
-        <v>383</v>
-      </c>
-      <c r="I27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" t="s">
+      <c r="H14" t="s">
         <v>384</v>
       </c>
-      <c r="I28" t="s">
-        <v>374</v>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="8:9">
+      <c r="H15" t="s">
+        <v>385</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="8:9">
+      <c r="H16" t="s">
+        <v>387</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="8:9">
+      <c r="H17" t="s">
+        <v>389</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4218,33 +4252,33 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="8:11">
@@ -4252,52 +4286,52 @@
         <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="8:11">
       <c r="H13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="I13" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="8:11">
@@ -4305,10 +4339,10 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K14" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="8:11">
@@ -4316,43 +4350,43 @@
         <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K15" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="8:11">
       <c r="H16" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I16" t="s">
         <v>77</v>
       </c>
       <c r="K16" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I19" t="s">
         <v>59</v>
@@ -4360,7 +4394,7 @@
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I20" t="s">
         <v>59</v>
@@ -4368,36 +4402,36 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I23" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="8:11">
       <c r="H24" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4412,23 +4446,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="31.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="33.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="28.4166666666667" customWidth="1"/>
     <col min="10" max="10" width="6.625" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
     <col min="12" max="12" width="5.125" customWidth="1"/>
@@ -4524,143 +4558,205 @@
     </row>
     <row r="6" customFormat="1" spans="2:6">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:6">
       <c r="B8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:9">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:3">
       <c r="B16" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:1">
-      <c r="A18" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:5">
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:11">
       <c r="B20" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I20" t="s">
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:11">
       <c r="B22" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="K22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:1">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:9">
+      <c r="B26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" t="s">
+        <v>284</v>
+      </c>
+      <c r="H26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9">
+      <c r="H29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30" t="s">
+        <v>289</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:11">
+      <c r="B32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C26" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" t="s">
-        <v>277</v>
-      </c>
-      <c r="H26" t="s">
-        <v>269</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="I32" t="s">
         <v>59</v>
       </c>
-      <c r="K26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="2:2">
-      <c r="B33" s="4"/>
+      <c r="J32"/>
+      <c r="K32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="2:2">
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4788,21 +4884,21 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I9" t="s">
         <v>59</v>
@@ -4810,7 +4906,7 @@
     </row>
     <row r="10" spans="8:9">
       <c r="H10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -4818,15 +4914,15 @@
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="I11" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
@@ -4834,7 +4930,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -4842,7 +4938,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
@@ -4850,7 +4946,7 @@
     </row>
     <row r="15" spans="8:9">
       <c r="H15" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -4858,7 +4954,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
@@ -4866,7 +4962,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -4874,58 +4970,58 @@
     </row>
     <row r="18" spans="8:9">
       <c r="H18" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="I18" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="I19" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="I20" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="H21" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="I21" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="I22" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="I23" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="8:9">
       <c r="H24" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="I24" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +5041,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14"/>
@@ -5055,29 +5151,29 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I11" t="s">
         <v>59</v>
@@ -5085,13 +5181,13 @@
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="K12" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5207,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5220,21 +5316,21 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5361,29 +5457,29 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -5394,16 +5490,16 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -5427,7 +5523,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5536,10 +5632,10 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -5547,64 +5643,64 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="I10" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K10" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="8:11">
       <c r="H11" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="I11" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K11" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="6:6">
@@ -5737,21 +5833,21 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -5759,7 +5855,7 @@
     </row>
     <row r="8" spans="8:9">
       <c r="H8" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -5767,80 +5863,80 @@
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="I10" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K10" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E13" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H13" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="I15" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="K15" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -5848,35 +5944,35 @@
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
       </c>
       <c r="K18" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="I20" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K20" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/__beans__.xlsx
+++ b/Luban/ExcelConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="2"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Behavior" sheetId="8" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="Priority" sheetId="5" r:id="rId4"/>
     <sheet name="Ability" sheetId="6" r:id="rId5"/>
     <sheet name="Status" sheetId="7" r:id="rId6"/>
-    <sheet name="Card" sheetId="9" r:id="rId7"/>
-    <sheet name="Caster" sheetId="10" r:id="rId8"/>
-    <sheet name="Drops" sheetId="13" r:id="rId9"/>
-    <sheet name="Pickable" sheetId="15" r:id="rId10"/>
-    <sheet name="Adventure" sheetId="17" r:id="rId11"/>
-    <sheet name="Math" sheetId="19" r:id="rId12"/>
+    <sheet name="Caster" sheetId="10" r:id="rId7"/>
+    <sheet name="Drops" sheetId="13" r:id="rId8"/>
+    <sheet name="Pickable" sheetId="15" r:id="rId9"/>
+    <sheet name="Adventure" sheetId="17" r:id="rId10"/>
+    <sheet name="Math" sheetId="19" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Behavior!#REF!</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="418">
   <si>
     <t>##var</t>
   </si>
@@ -229,6 +228,18 @@
     <t>智能进攻</t>
   </si>
   <si>
+    <t>ai.MinionDefaultIntelligentAssaultInfo</t>
+  </si>
+  <si>
+    <t>随从默认智能进攻</t>
+  </si>
+  <si>
+    <t>ai.FollowMaster</t>
+  </si>
+  <si>
+    <t>跟随主人</t>
+  </si>
+  <si>
     <t>######时间线</t>
   </si>
   <si>
@@ -493,6 +504,18 @@
     <t>internal_distance</t>
   </si>
   <si>
+    <t>timeline.SummoningMinionInfo</t>
+  </si>
+  <si>
+    <t>召唤随从</t>
+  </si>
+  <si>
+    <t>minion_alias</t>
+  </si>
+  <si>
+    <t>随从名</t>
+  </si>
+  <si>
     <t>##动作时间段</t>
   </si>
   <si>
@@ -595,30 +618,84 @@
     <t>size</t>
   </si>
   <si>
+    <t>timeline.DeadBodyVampirOfSphereColliderInfo</t>
+  </si>
+  <si>
+    <t>球体碰撞尸体吸血</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>吸取尸体总血量的百分之多少</t>
+  </si>
+  <si>
+    <t>timeline.DeadAbortCheckInfo</t>
+  </si>
+  <si>
+    <t>死亡终止检查</t>
+  </si>
+  <si>
+    <t>如果当前技能的目标已经死亡, 则终止</t>
+  </si>
+  <si>
     <t>##status</t>
   </si>
   <si>
     <t>timeline.TsStatusHarmInfo</t>
   </si>
   <si>
+    <t>timeline.TsStatusContinuousHarmInfo</t>
+  </si>
+  <si>
+    <t>状态持续伤害</t>
+  </si>
+  <si>
+    <t>internalTime</t>
+  </si>
+  <si>
+    <t>时间间隔</t>
+  </si>
+  <si>
     <t>timeline.LiuXueInfo</t>
   </si>
   <si>
     <t>流血</t>
   </si>
   <si>
-    <t>internalTime</t>
-  </si>
-  <si>
-    <t>时间间隔</t>
-  </si>
-  <si>
     <t>timeline.RanshaoInfo</t>
   </si>
   <si>
     <t>燃烧</t>
   </si>
   <si>
+    <t>timeline.WenyiInfo</t>
+  </si>
+  <si>
+    <t>瘟疫</t>
+  </si>
+  <si>
+    <t>timeline.WenyichuanboInfo</t>
+  </si>
+  <si>
+    <t>瘟疫传播</t>
+  </si>
+  <si>
+    <t>chuanbocengshu</t>
+  </si>
+  <si>
+    <t>每次传播的层数</t>
+  </si>
+  <si>
+    <t>chuanbofanwei</t>
+  </si>
+  <si>
+    <t>传播范围</t>
+  </si>
+  <si>
     <t>######阶段线</t>
   </si>
   <si>
@@ -709,6 +786,15 @@
     <t>低于该阈值触发</t>
   </si>
   <si>
+    <t>casterevaluate.CasterSummoningInfo</t>
+  </si>
+  <si>
+    <t>施法器召唤评估</t>
+  </si>
+  <si>
+    <t>评估是否超过最大召唤数之类的</t>
+  </si>
+  <si>
     <t>######冒险</t>
   </si>
   <si>
@@ -790,9 +876,6 @@
     <t>数值配方</t>
   </si>
   <si>
-    <t>pct</t>
-  </si>
-  <si>
     <t>fix</t>
   </si>
   <si>
@@ -922,6 +1005,30 @@
     <t>0 - 1</t>
   </si>
   <si>
+    <t>procedureline.MissBeSelectOnHarmInfo</t>
+  </si>
+  <si>
+    <t>伤害时丢失被选中</t>
+  </si>
+  <si>
+    <t>procedureline.SplitBoltOnHitInfo</t>
+  </si>
+  <si>
+    <t>命中时分裂投射物</t>
+  </si>
+  <si>
+    <t>split_num</t>
+  </si>
+  <si>
+    <t>分裂出几个投射物</t>
+  </si>
+  <si>
+    <t>bolt_alias</t>
+  </si>
+  <si>
+    <t>分裂范围</t>
+  </si>
+  <si>
     <t>priority.Info</t>
   </si>
   <si>
@@ -1016,30 +1123,6 @@
   </si>
   <si>
     <t>status.StatusActionInfo</t>
-  </si>
-  <si>
-    <t>card.Info</t>
-  </si>
-  <si>
-    <t>card.WrappageInfo</t>
-  </si>
-  <si>
-    <t>card.WrappageAbilityInfo</t>
-  </si>
-  <si>
-    <t>包裹技能</t>
-  </si>
-  <si>
-    <t>这个卡牌里包裹的是一个技能</t>
-  </si>
-  <si>
-    <t>card.WrappageAbilityAssistInfo</t>
-  </si>
-  <si>
-    <t>包裹技能辅助</t>
-  </si>
-  <si>
-    <t>这个卡牌里包裹的是一个技能辅助</t>
   </si>
   <si>
     <t>cast.Info</t>
@@ -2172,12 +2255,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L207"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I166" sqref="I162:I166"/>
+      <selection pane="bottomLeft" activeCell="K168" sqref="K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2516,151 +2599,153 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" t="s">
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
         <v>21</v>
       </c>
-      <c r="F60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" t="s">
-        <v>69</v>
-      </c>
-      <c r="I68" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s">
         <v>26</v>
       </c>
-      <c r="K68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="8:9">
-      <c r="H69" t="s">
-        <v>71</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="K70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9">
+      <c r="H71" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" t="s">
+    <row r="73" spans="2:9">
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
         <v>72</v>
       </c>
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71" t="s">
-        <v>74</v>
-      </c>
-      <c r="I71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="8:9">
-      <c r="H72" t="s">
-        <v>76</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="E73" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="5"/>
-      <c r="B74" t="s">
+      <c r="H73" t="s">
         <v>78</v>
       </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="I73" t="s">
         <v>79</v>
       </c>
+    </row>
+    <row r="74" spans="8:9">
       <c r="H74" t="s">
         <v>80</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" t="s">
         <v>81</v>
       </c>
-      <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E77" t="s">
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="5"/>
+      <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="H77" t="s">
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" t="s">
         <v>83</v>
       </c>
-      <c r="I77" t="s">
+      <c r="H76" t="s">
+        <v>84</v>
+      </c>
+      <c r="I76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s">
+        <v>87</v>
+      </c>
+      <c r="I79" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="8:9">
-      <c r="H78" t="s">
-        <v>84</v>
-      </c>
-      <c r="I78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>68</v>
-      </c>
-      <c r="E80" t="s">
-        <v>86</v>
-      </c>
+    <row r="80" spans="8:9">
       <c r="H80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I80" t="s">
         <v>26</v>
-      </c>
-      <c r="K80" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="82" spans="2:11">
@@ -2668,7 +2753,7 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E82" t="s">
         <v>90</v>
@@ -2677,7 +2762,7 @@
         <v>91</v>
       </c>
       <c r="I82" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="K82" t="s">
         <v>92</v>
@@ -2688,7 +2773,7 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E84" t="s">
         <v>94</v>
@@ -2697,889 +2782,1094 @@
         <v>95</v>
       </c>
       <c r="I84" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:11">
       <c r="B86" t="s">
         <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E86" t="s">
         <v>98</v>
       </c>
       <c r="H86" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I86" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="K86" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" t="s">
+        <v>102</v>
+      </c>
+      <c r="H88" t="s">
         <v>99</v>
       </c>
-      <c r="C88" t="s">
-        <v>68</v>
-      </c>
-      <c r="E88" t="s">
-        <v>100</v>
-      </c>
-      <c r="H88" t="s">
-        <v>95</v>
-      </c>
       <c r="I88" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E90" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H90" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I90" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H92" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I92" t="s">
-        <v>77</v>
-      </c>
-      <c r="K92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
       <c r="B94" t="s">
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E94" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="96" spans="2:11">
+      <c r="H94" t="s">
+        <v>109</v>
+      </c>
+      <c r="I94" t="s">
+        <v>81</v>
+      </c>
+      <c r="K94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>110</v>
-      </c>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-      <c r="I96" t="s">
-        <v>77</v>
-      </c>
-      <c r="K96" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="8:11">
-      <c r="H97" t="s">
+    <row r="98" spans="2:11">
+      <c r="B98" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="H98" t="s">
+        <v>115</v>
+      </c>
+      <c r="I98" t="s">
+        <v>81</v>
+      </c>
+      <c r="K98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11">
+      <c r="H99" t="s">
         <v>9</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I99" t="s">
         <v>26</v>
       </c>
-      <c r="K97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" t="s">
-        <v>68</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="K99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" t="s">
+        <v>119</v>
+      </c>
+      <c r="H101" t="s">
         <v>115</v>
       </c>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-      <c r="I99" t="s">
-        <v>77</v>
-      </c>
-      <c r="K99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" t="s">
+      <c r="I101" t="s">
+        <v>81</v>
+      </c>
+      <c r="K101" t="s">
         <v>116</v>
-      </c>
-      <c r="C101" t="s">
-        <v>68</v>
-      </c>
-      <c r="E101" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
       <c r="B105" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>68</v>
-      </c>
-      <c r="F105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
+        <v>72</v>
+      </c>
+      <c r="E105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="F107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" t="s">
         <v>124</v>
       </c>
-      <c r="H107" t="s">
-        <v>125</v>
-      </c>
-      <c r="I107" t="s">
-        <v>126</v>
-      </c>
-      <c r="K107" t="s">
+      <c r="E109" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="B109" t="s">
+      <c r="F109" t="s">
         <v>128</v>
       </c>
-      <c r="C109" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="H109" t="s">
         <v>129</v>
       </c>
-      <c r="F109" t="s">
+      <c r="I109" t="s">
         <v>130</v>
       </c>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-      <c r="I109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="8:11">
-      <c r="H110" t="s">
+      <c r="K109" t="s">
         <v>131</v>
       </c>
-      <c r="I110" t="s">
-        <v>77</v>
-      </c>
-      <c r="K110" t="s">
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="111" spans="8:11">
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" t="s">
+        <v>133</v>
+      </c>
+      <c r="F111" t="s">
+        <v>134</v>
+      </c>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11">
+      <c r="H112" t="s">
+        <v>135</v>
+      </c>
+      <c r="I112" t="s">
+        <v>81</v>
+      </c>
+      <c r="K112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11">
+      <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>59</v>
       </c>
-      <c r="K111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
-      <c r="B113" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" t="s">
-        <v>120</v>
-      </c>
-      <c r="E113" t="s">
-        <v>136</v>
-      </c>
-      <c r="F113" t="s">
-        <v>137</v>
-      </c>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-      <c r="I113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="8:11">
-      <c r="H114" t="s">
-        <v>131</v>
-      </c>
-      <c r="I114" t="s">
-        <v>77</v>
-      </c>
-      <c r="K114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="8:11">
+      <c r="K113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115" t="s">
+        <v>140</v>
+      </c>
+      <c r="F115" t="s">
+        <v>141</v>
+      </c>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I115" t="s">
-        <v>59</v>
-      </c>
-      <c r="K115" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="8:11">
       <c r="H116" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K116" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11">
+      <c r="H117" t="s">
+        <v>142</v>
+      </c>
+      <c r="I117" t="s">
         <v>59</v>
       </c>
-      <c r="K116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" t="s">
-        <v>140</v>
-      </c>
-      <c r="C118" t="s">
-        <v>120</v>
-      </c>
-      <c r="E118" t="s">
-        <v>141</v>
-      </c>
-      <c r="F118" t="s">
-        <v>142</v>
-      </c>
+      <c r="K117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11">
       <c r="H118" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I118" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="8:11">
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-      <c r="I119" t="s">
-        <v>77</v>
-      </c>
-      <c r="K119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="8:9">
+        <v>59</v>
+      </c>
+      <c r="K118" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" t="s">
+        <v>145</v>
+      </c>
+      <c r="F120" t="s">
+        <v>146</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11">
+      <c r="H121" t="s">
+        <v>135</v>
+      </c>
+      <c r="I121" t="s">
+        <v>81</v>
+      </c>
+      <c r="K121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="8:9">
+      <c r="H122" t="s">
+        <v>137</v>
+      </c>
+      <c r="I122" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
-      <c r="B122" t="s">
-        <v>143</v>
-      </c>
-      <c r="C122" t="s">
-        <v>120</v>
-      </c>
-      <c r="E122" t="s">
-        <v>144</v>
-      </c>
-      <c r="H122" t="s">
-        <v>125</v>
-      </c>
-      <c r="I122" t="s">
-        <v>126</v>
-      </c>
-      <c r="K122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="8:9">
-      <c r="H123" t="s">
-        <v>131</v>
-      </c>
-      <c r="I123" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="8:11">
+    <row r="124" spans="2:11">
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" t="s">
+        <v>124</v>
+      </c>
+      <c r="E124" t="s">
+        <v>148</v>
+      </c>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="I124" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="K124" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="8:9">
       <c r="H125" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I125" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11">
+      <c r="H126" t="s">
+        <v>150</v>
+      </c>
+      <c r="I126" t="s">
+        <v>26</v>
+      </c>
+      <c r="K126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="8:9">
+      <c r="H127" t="s">
+        <v>152</v>
+      </c>
+      <c r="I127" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="8:9">
-      <c r="H126" t="s">
-        <v>149</v>
-      </c>
-      <c r="I126" t="s">
+    <row r="128" spans="8:9">
+      <c r="H128" t="s">
+        <v>153</v>
+      </c>
+      <c r="I128" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9">
-      <c r="B131" t="s">
-        <v>151</v>
-      </c>
-      <c r="C131" t="s">
-        <v>66</v>
-      </c>
-      <c r="H131" t="s">
-        <v>69</v>
-      </c>
-      <c r="I131" t="s">
+    <row r="130" spans="2:11">
+      <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" t="s">
+        <v>155</v>
+      </c>
+      <c r="H130" t="s">
+        <v>156</v>
+      </c>
+      <c r="I130" t="s">
+        <v>81</v>
+      </c>
+      <c r="K130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" t="s">
+        <v>70</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="8:9">
-      <c r="H132" t="s">
-        <v>152</v>
-      </c>
-      <c r="I132" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="133" spans="8:9">
-      <c r="H133" t="s">
-        <v>153</v>
-      </c>
-      <c r="I133" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11">
-      <c r="B135" t="s">
-        <v>154</v>
-      </c>
-      <c r="C135" t="s">
-        <v>151</v>
-      </c>
-      <c r="E135" t="s">
-        <v>155</v>
-      </c>
-      <c r="H135" t="s">
-        <v>156</v>
-      </c>
-      <c r="I135" t="s">
-        <v>26</v>
-      </c>
-      <c r="K135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" t="s">
-        <v>158</v>
-      </c>
-      <c r="C137" t="s">
-        <v>151</v>
-      </c>
-      <c r="E137" t="s">
-        <v>159</v>
-      </c>
-      <c r="H137" t="s">
+    <row r="139" spans="8:9">
+      <c r="H139" t="s">
         <v>160</v>
-      </c>
-      <c r="I137" t="s">
-        <v>161</v>
-      </c>
-      <c r="K137" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11">
-      <c r="B139" t="s">
-        <v>163</v>
-      </c>
-      <c r="C139" t="s">
-        <v>151</v>
-      </c>
-      <c r="E139" t="s">
-        <v>164</v>
-      </c>
-      <c r="H139" t="s">
-        <v>138</v>
       </c>
       <c r="I139" t="s">
         <v>59</v>
       </c>
-      <c r="K139" t="s">
+    </row>
+    <row r="140" spans="8:9">
+      <c r="H140" t="s">
+        <v>161</v>
+      </c>
+      <c r="I140" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142" t="s">
+        <v>163</v>
+      </c>
+      <c r="H142" t="s">
+        <v>164</v>
+      </c>
+      <c r="I142" t="s">
+        <v>26</v>
+      </c>
+      <c r="K142" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="2:5">
-      <c r="B141" t="s">
+    <row r="144" spans="2:11">
+      <c r="B144" t="s">
         <v>166</v>
       </c>
-      <c r="C141" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="C144" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" t="s">
+      <c r="H144" t="s">
         <v>168</v>
       </c>
-      <c r="C143" t="s">
-        <v>151</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="I144" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" t="s">
+      <c r="K144" t="s">
         <v>170</v>
       </c>
-      <c r="C145" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9">
-      <c r="B147" t="s">
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" t="s">
         <v>171</v>
       </c>
-      <c r="C147" t="s">
-        <v>170</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" t="s">
         <v>172</v>
       </c>
-      <c r="F147" t="s">
+      <c r="H146" t="s">
+        <v>142</v>
+      </c>
+      <c r="I146" t="s">
+        <v>59</v>
+      </c>
+      <c r="K146" t="s">
         <v>173</v>
       </c>
-      <c r="H147" t="s">
-        <v>125</v>
-      </c>
-      <c r="I147" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="148" spans="8:11">
-      <c r="H148" t="s">
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
         <v>174</v>
       </c>
-      <c r="I148" t="s">
-        <v>77</v>
-      </c>
-      <c r="K148" t="s">
+      <c r="C148" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="2:5">
       <c r="B150" t="s">
         <v>176</v>
       </c>
       <c r="C150" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E150" t="s">
         <v>177</v>
       </c>
-      <c r="F150" t="s">
-        <v>173</v>
-      </c>
-      <c r="H150" t="s">
-        <v>125</v>
-      </c>
-      <c r="I150" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="151" spans="8:9">
-      <c r="H151" t="s">
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" t="s">
         <v>178</v>
       </c>
-      <c r="I151" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="152" spans="8:9">
-      <c r="H152" t="s">
-        <v>180</v>
-      </c>
-      <c r="I152" t="s">
-        <v>59</v>
+      <c r="C152" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="2:9">
       <c r="B154" t="s">
+        <v>179</v>
+      </c>
+      <c r="C154" t="s">
+        <v>178</v>
+      </c>
+      <c r="E154" t="s">
+        <v>180</v>
+      </c>
+      <c r="F154" t="s">
         <v>181</v>
       </c>
-      <c r="C154" t="s">
-        <v>170</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="H154" t="s">
+        <v>129</v>
+      </c>
+      <c r="I154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="8:11">
+      <c r="H155" t="s">
         <v>182</v>
       </c>
-      <c r="F154" t="s">
-        <v>173</v>
-      </c>
-      <c r="H154" t="s">
-        <v>125</v>
-      </c>
-      <c r="I154" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="155" spans="8:9">
-      <c r="H155" t="s">
+      <c r="I155" t="s">
+        <v>81</v>
+      </c>
+      <c r="K155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" t="s">
         <v>178</v>
       </c>
-      <c r="I155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="8:9">
-      <c r="H156" t="s">
-        <v>183</v>
-      </c>
-      <c r="I156" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160" t="s">
+      <c r="E157" t="s">
         <v>185</v>
       </c>
-      <c r="C160" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
-      <c r="B162" t="s">
+      <c r="F157" t="s">
+        <v>181</v>
+      </c>
+      <c r="H157" t="s">
+        <v>129</v>
+      </c>
+      <c r="I157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="8:9">
+      <c r="H158" t="s">
         <v>186</v>
       </c>
-      <c r="C162" t="s">
-        <v>185</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="I158" t="s">
         <v>187</v>
       </c>
+    </row>
+    <row r="159" spans="8:9">
+      <c r="H159" t="s">
+        <v>188</v>
+      </c>
+      <c r="I159" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9">
+      <c r="B161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" t="s">
+        <v>178</v>
+      </c>
+      <c r="E161" t="s">
+        <v>190</v>
+      </c>
+      <c r="F161" t="s">
+        <v>181</v>
+      </c>
+      <c r="H161" t="s">
+        <v>129</v>
+      </c>
+      <c r="I161" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" spans="8:9">
       <c r="H162" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="I162" t="s">
-        <v>126</v>
-      </c>
-      <c r="K162" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="163" spans="8:11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="8:9">
       <c r="H163" t="s">
+        <v>191</v>
+      </c>
+      <c r="I163" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" t="s">
+        <v>192</v>
+      </c>
+      <c r="C165" t="s">
+        <v>159</v>
+      </c>
+      <c r="E165" t="s">
+        <v>193</v>
+      </c>
+      <c r="H165" t="s">
         <v>188</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I165" t="s">
         <v>59</v>
       </c>
-      <c r="K163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9">
-      <c r="B165" t="s">
-        <v>190</v>
-      </c>
-      <c r="C165" t="s">
-        <v>185</v>
-      </c>
-      <c r="E165" t="s">
-        <v>191</v>
-      </c>
-      <c r="H165" t="s">
-        <v>125</v>
-      </c>
-      <c r="I165" t="s">
-        <v>126</v>
+      <c r="K165" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="8:11">
       <c r="H166" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I166" t="s">
         <v>59</v>
       </c>
       <c r="K166" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11">
-      <c r="B172" t="s">
-        <v>193</v>
-      </c>
-      <c r="C172" t="s">
-        <v>21</v>
-      </c>
-      <c r="F172" t="s">
-        <v>194</v>
-      </c>
-      <c r="H172" t="s">
-        <v>25</v>
-      </c>
-      <c r="I172" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" t="s">
+        <v>197</v>
+      </c>
+      <c r="C168" t="s">
+        <v>159</v>
+      </c>
+      <c r="E168" t="s">
+        <v>198</v>
+      </c>
+      <c r="F168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" t="s">
+        <v>201</v>
+      </c>
+      <c r="C175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11">
+      <c r="B177" t="s">
+        <v>202</v>
+      </c>
+      <c r="C177" t="s">
+        <v>201</v>
+      </c>
+      <c r="E177" t="s">
+        <v>203</v>
+      </c>
+      <c r="H177" t="s">
+        <v>129</v>
+      </c>
+      <c r="I177" t="s">
+        <v>130</v>
+      </c>
+      <c r="K177" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="8:11">
+      <c r="H178" t="s">
+        <v>204</v>
+      </c>
+      <c r="I178" t="s">
+        <v>59</v>
+      </c>
+      <c r="K178" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11">
+      <c r="B180" t="s">
+        <v>206</v>
+      </c>
+      <c r="C180" t="s">
+        <v>201</v>
+      </c>
+      <c r="E180" t="s">
+        <v>207</v>
+      </c>
+      <c r="H180" t="s">
+        <v>129</v>
+      </c>
+      <c r="I180" t="s">
+        <v>130</v>
+      </c>
+      <c r="K180" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="8:11">
+      <c r="H181" t="s">
+        <v>204</v>
+      </c>
+      <c r="I181" t="s">
+        <v>59</v>
+      </c>
+      <c r="K181" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9">
+      <c r="B183" t="s">
+        <v>208</v>
+      </c>
+      <c r="C183" t="s">
+        <v>201</v>
+      </c>
+      <c r="E183" t="s">
+        <v>209</v>
+      </c>
+      <c r="H183" t="s">
+        <v>129</v>
+      </c>
+      <c r="I183" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="8:11">
+      <c r="H184" t="s">
+        <v>204</v>
+      </c>
+      <c r="I184" t="s">
+        <v>59</v>
+      </c>
+      <c r="K184" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="186" customFormat="1" spans="2:9">
+      <c r="B186" t="s">
+        <v>210</v>
+      </c>
+      <c r="C186" t="s">
+        <v>201</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186" t="s">
+        <v>211</v>
+      </c>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186" t="s">
+        <v>129</v>
+      </c>
+      <c r="I186" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" customFormat="1" spans="8:11">
+      <c r="H187" t="s">
+        <v>204</v>
+      </c>
+      <c r="I187" t="s">
+        <v>59</v>
+      </c>
+      <c r="J187"/>
+      <c r="K187" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" customFormat="1" spans="2:11">
+      <c r="B189" t="s">
+        <v>212</v>
+      </c>
+      <c r="C189" t="s">
+        <v>201</v>
+      </c>
+      <c r="E189" t="s">
+        <v>213</v>
+      </c>
+      <c r="H189" t="s">
+        <v>204</v>
+      </c>
+      <c r="I189" t="s">
+        <v>59</v>
+      </c>
+      <c r="J189"/>
+      <c r="K189" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="190" customFormat="1" spans="8:11">
+      <c r="H190" t="s">
+        <v>214</v>
+      </c>
+      <c r="I190" t="s">
         <v>26</v>
       </c>
-      <c r="K172" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="173" spans="8:11">
-      <c r="H173" t="s">
-        <v>27</v>
-      </c>
-      <c r="I173" t="s">
-        <v>26</v>
-      </c>
-      <c r="K173" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6">
-      <c r="B175" t="s">
-        <v>197</v>
-      </c>
-      <c r="C175" t="s">
-        <v>193</v>
-      </c>
-      <c r="E175" t="s">
-        <v>198</v>
-      </c>
-      <c r="F175" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6">
-      <c r="B177" t="s">
-        <v>200</v>
-      </c>
-      <c r="C177" t="s">
-        <v>193</v>
-      </c>
-      <c r="E177" t="s">
-        <v>201</v>
-      </c>
-      <c r="F177" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6">
-      <c r="B179" t="s">
-        <v>203</v>
-      </c>
-      <c r="C179" t="s">
-        <v>193</v>
-      </c>
-      <c r="E179" t="s">
-        <v>204</v>
-      </c>
-      <c r="F179" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3">
-      <c r="B185" t="s">
-        <v>207</v>
-      </c>
-      <c r="C185" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5">
-      <c r="B187" t="s">
-        <v>208</v>
-      </c>
-      <c r="C187" t="s">
-        <v>207</v>
-      </c>
-      <c r="E187" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5">
-      <c r="B189" t="s">
-        <v>210</v>
-      </c>
-      <c r="C189" t="s">
-        <v>207</v>
-      </c>
-      <c r="E189" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5">
-      <c r="B191" t="s">
-        <v>212</v>
-      </c>
-      <c r="C191" t="s">
-        <v>207</v>
-      </c>
-      <c r="E191" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5">
-      <c r="B193" t="s">
-        <v>214</v>
-      </c>
-      <c r="C193" t="s">
-        <v>207</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="K190" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="2:5">
-      <c r="B195" t="s">
+    <row r="191" customFormat="1" spans="8:11">
+      <c r="H191" t="s">
         <v>216</v>
       </c>
-      <c r="C195" t="s">
-        <v>207</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="I191" t="s">
+        <v>59</v>
+      </c>
+      <c r="K191" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="2:11">
       <c r="B197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C197" t="s">
-        <v>207</v>
-      </c>
-      <c r="E197" t="s">
-        <v>219</v>
+        <v>21</v>
+      </c>
+      <c r="F197" t="s">
+        <v>220</v>
       </c>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="I197" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="K197" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="198" spans="8:11">
+      <c r="H198" t="s">
+        <v>27</v>
+      </c>
+      <c r="I198" t="s">
+        <v>26</v>
+      </c>
+      <c r="K198" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="203" spans="2:3">
-      <c r="B203" t="s">
+    <row r="200" spans="2:6">
+      <c r="B200" t="s">
         <v>223</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C200" t="s">
+        <v>219</v>
+      </c>
+      <c r="E200" t="s">
+        <v>224</v>
+      </c>
+      <c r="F200" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" t="s">
+        <v>226</v>
+      </c>
+      <c r="C202" t="s">
+        <v>219</v>
+      </c>
+      <c r="E202" t="s">
+        <v>227</v>
+      </c>
+      <c r="F202" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6">
+      <c r="B204" t="s">
+        <v>229</v>
+      </c>
+      <c r="C204" t="s">
+        <v>219</v>
+      </c>
+      <c r="E204" t="s">
+        <v>230</v>
+      </c>
+      <c r="F204" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" t="s">
+        <v>233</v>
+      </c>
+      <c r="C210" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="2:5">
-      <c r="B205" t="s">
-        <v>224</v>
-      </c>
-      <c r="C205" t="s">
-        <v>223</v>
-      </c>
-      <c r="E205" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5">
-      <c r="B207" t="s">
-        <v>226</v>
-      </c>
-      <c r="C207" t="s">
-        <v>223</v>
-      </c>
-      <c r="E207" t="s">
-        <v>227</v>
+    <row r="212" spans="2:5">
+      <c r="B212" t="s">
+        <v>234</v>
+      </c>
+      <c r="C212" t="s">
+        <v>233</v>
+      </c>
+      <c r="E212" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="B214" t="s">
+        <v>236</v>
+      </c>
+      <c r="C214" t="s">
+        <v>233</v>
+      </c>
+      <c r="E214" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" t="s">
+        <v>238</v>
+      </c>
+      <c r="C216" t="s">
+        <v>233</v>
+      </c>
+      <c r="E216" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218" t="s">
+        <v>240</v>
+      </c>
+      <c r="C218" t="s">
+        <v>233</v>
+      </c>
+      <c r="E218" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5">
+      <c r="B220" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" t="s">
+        <v>233</v>
+      </c>
+      <c r="E220" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11">
+      <c r="B222" t="s">
+        <v>244</v>
+      </c>
+      <c r="C222" t="s">
+        <v>233</v>
+      </c>
+      <c r="E222" t="s">
+        <v>245</v>
+      </c>
+      <c r="H222" t="s">
+        <v>246</v>
+      </c>
+      <c r="I222" t="s">
+        <v>59</v>
+      </c>
+      <c r="K222" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" t="s">
+        <v>248</v>
+      </c>
+      <c r="C224" t="s">
+        <v>233</v>
+      </c>
+      <c r="E224" t="s">
+        <v>249</v>
+      </c>
+      <c r="F224" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" t="s">
+        <v>252</v>
+      </c>
+      <c r="C231" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5">
+      <c r="B233" t="s">
+        <v>253</v>
+      </c>
+      <c r="C233" t="s">
+        <v>252</v>
+      </c>
+      <c r="E233" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="B235" t="s">
+        <v>255</v>
+      </c>
+      <c r="C235" t="s">
+        <v>252</v>
+      </c>
+      <c r="E235" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3592,164 +3882,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="5.125" customWidth="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="5.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="2:2">
-      <c r="B5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:6">
-      <c r="B7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:9">
-      <c r="B9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E9" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9" t="s">
-        <v>372</v>
-      </c>
-      <c r="H9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L10"/>
@@ -3864,29 +3996,29 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="E7" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="H7" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -3894,19 +4026,19 @@
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="H10" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="I10" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L17"/>
@@ -4033,18 +4165,18 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="H7" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="I7" t="s">
         <v>59</v>
@@ -4052,7 +4184,7 @@
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="I8" t="s">
         <v>59</v>
@@ -4060,13 +4192,13 @@
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="H10" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -4074,7 +4206,7 @@
     </row>
     <row r="11" customFormat="1" spans="8:9">
       <c r="H11" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="I11" t="s">
         <v>59</v>
@@ -4082,7 +4214,7 @@
     </row>
     <row r="12" customFormat="1" spans="8:9">
       <c r="H12" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="I12" t="s">
         <v>59</v>
@@ -4090,13 +4222,13 @@
     </row>
     <row r="14" customFormat="1" spans="2:9">
       <c r="B14" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="H14" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
@@ -4104,7 +4236,7 @@
     </row>
     <row r="15" customFormat="1" spans="8:9">
       <c r="H15" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="I15" t="s">
         <v>59</v>
@@ -4112,7 +4244,7 @@
     </row>
     <row r="16" customFormat="1" spans="8:9">
       <c r="H16" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="I16" t="s">
         <v>59</v>
@@ -4120,7 +4252,7 @@
     </row>
     <row r="17" customFormat="1" spans="8:9">
       <c r="H17" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="I17" t="s">
         <v>59</v>
@@ -4143,7 +4275,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4252,141 +4384,141 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K8" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K9" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K12" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="8:11">
       <c r="H13" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="I13" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K13" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="K14" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K15" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="8:11">
       <c r="H16" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="I19" t="s">
         <v>59</v>
@@ -4394,44 +4526,44 @@
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="4" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="F23" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="I23" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="8:11">
       <c r="H24" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="I24" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4446,10 +4578,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4558,116 +4690,116 @@
     </row>
     <row r="6" customFormat="1" spans="2:6">
       <c r="B6" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:6">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:3">
       <c r="B16" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:5">
       <c r="B18" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:11">
       <c r="B20" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="H20" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="I20" t="s">
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:11">
       <c r="B22" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:1">
@@ -4677,47 +4809,47 @@
     </row>
     <row r="26" customFormat="1" spans="2:9">
       <c r="B26" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="F26" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="E28" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="F28" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="8:9">
       <c r="H29" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="I29" t="s">
         <v>59</v>
@@ -4725,38 +4857,95 @@
     </row>
     <row r="30" spans="8:9">
       <c r="H30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:11">
       <c r="B32" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32"/>
+        <v>293</v>
+      </c>
       <c r="E32" t="s">
-        <v>291</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32"/>
+        <v>319</v>
+      </c>
       <c r="H32" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
       </c>
-      <c r="J32"/>
       <c r="K32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="2:2">
-      <c r="B34" s="4"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="2:5">
+      <c r="B34" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" t="s">
+        <v>325</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" t="s">
+        <v>327</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11">
+      <c r="H39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" t="s">
+        <v>328</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4884,21 +5073,21 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="I9" t="s">
         <v>59</v>
@@ -4906,7 +5095,7 @@
     </row>
     <row r="10" spans="8:9">
       <c r="H10" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -4914,15 +5103,15 @@
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="I11" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
@@ -4930,7 +5119,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -4938,7 +5127,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
@@ -4946,7 +5135,7 @@
     </row>
     <row r="15" spans="8:9">
       <c r="H15" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -4954,7 +5143,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
@@ -4962,7 +5151,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -4970,58 +5159,58 @@
     </row>
     <row r="18" spans="8:9">
       <c r="H18" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="I18" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="I19" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="I20" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="H21" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="I21" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="I22" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="I23" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="8:9">
       <c r="H24" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="I24" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5151,29 +5340,29 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="H10" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="I10" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="I11" t="s">
         <v>59</v>
@@ -5181,13 +5370,13 @@
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="K12" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5316,21 +5505,21 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="I10" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5345,185 +5534,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="31.625" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="5.875" customWidth="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="5.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F9" t="s">
-        <v>329</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" t="s">
-        <v>331</v>
-      </c>
-      <c r="F10" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5632,10 +5646,10 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -5643,64 +5657,64 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="I10" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="K10" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="8:11">
       <c r="H11" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="K11" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="6:6">
@@ -5718,7 +5732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L20"/>
@@ -5833,21 +5847,21 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="H7" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -5855,7 +5869,7 @@
     </row>
     <row r="8" spans="8:9">
       <c r="H8" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -5863,80 +5877,80 @@
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="I10" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="K10" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="H13" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="I15" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="K15" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="E17" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="H17" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -5944,35 +5958,193 @@
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
       </c>
       <c r="K18" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="I20" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="K20" t="s">
-        <v>355</v>
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="5.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="2:2">
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:6">
+      <c r="B7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:9">
+      <c r="B9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" t="s">
+        <v>401</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/__beans__.xlsx
+++ b/Luban/ExcelConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Behavior" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="427">
   <si>
     <t>##var</t>
   </si>
@@ -870,40 +870,67 @@
     <t>数值模式(按固定值或百分比计算)</t>
   </si>
   <si>
+    <t>numeric.DamageFormulaInfo</t>
+  </si>
+  <si>
+    <t>伤害配方</t>
+  </si>
+  <si>
+    <t>示例: 造成30%物理攻击力 + 70%法术攻击力的真实伤害</t>
+  </si>
+  <si>
+    <t>damage_formulas</t>
+  </si>
+  <si>
+    <t>(list#sep=;),FormulaInfo#sep=/</t>
+  </si>
+  <si>
+    <t>配方</t>
+  </si>
+  <si>
+    <t>damage_type</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>伤害类型. 物理、法术、真实...</t>
+  </si>
+  <si>
     <t>numeric.FormulaInfo</t>
   </si>
   <si>
     <t>数值配方</t>
   </si>
   <si>
+    <t>numeric.FormulaInfo1</t>
+  </si>
+  <si>
+    <t>配方1</t>
+  </si>
+  <si>
+    <t>最常用的属性数值配方</t>
+  </si>
+  <si>
     <t>fix</t>
   </si>
   <si>
-    <t>numeric.DamageFormulaInfo</t>
-  </si>
-  <si>
-    <t>伤害配方</t>
-  </si>
-  <si>
-    <t>示例: 造成30%物理攻击力 + 70%法术攻击力的真实伤害</t>
-  </si>
-  <si>
-    <t>damage_formulas</t>
-  </si>
-  <si>
-    <t>(list#sep=;),FormulaInfo#sep=/</t>
-  </si>
-  <si>
-    <t>配方</t>
-  </si>
-  <si>
-    <t>damage_type</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>伤害类型. 物理、法术、真实...</t>
+    <t>numeric.FormulaInfo2</t>
+  </si>
+  <si>
+    <t>配方2</t>
+  </si>
+  <si>
+    <t>根据敌人总血量的百分比</t>
+  </si>
+  <si>
+    <t>numeric.FormulaInfo3</t>
+  </si>
+  <si>
+    <t>配方3</t>
+  </si>
+  <si>
+    <t>根据敌人总蓝量的百分比</t>
   </si>
   <si>
     <t>procedureline.Info</t>
@@ -2257,8 +2284,8 @@
   <sheetPr/>
   <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K168" sqref="K168"/>
     </sheetView>
@@ -3996,21 +4023,21 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="H7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -4018,7 +4045,7 @@
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -4026,19 +4053,19 @@
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H10" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="I10" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4165,18 +4192,18 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="I7" t="s">
         <v>59</v>
@@ -4184,7 +4211,7 @@
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="I8" t="s">
         <v>59</v>
@@ -4192,13 +4219,13 @@
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H10" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -4206,7 +4233,7 @@
     </row>
     <row r="11" customFormat="1" spans="8:9">
       <c r="H11" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="I11" t="s">
         <v>59</v>
@@ -4214,7 +4241,7 @@
     </row>
     <row r="12" customFormat="1" spans="8:9">
       <c r="H12" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="I12" t="s">
         <v>59</v>
@@ -4222,13 +4249,13 @@
     </row>
     <row r="14" customFormat="1" spans="2:9">
       <c r="B14" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H14" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
@@ -4236,7 +4263,7 @@
     </row>
     <row r="15" customFormat="1" spans="8:9">
       <c r="H15" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="I15" t="s">
         <v>59</v>
@@ -4244,7 +4271,7 @@
     </row>
     <row r="16" customFormat="1" spans="8:9">
       <c r="H16" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="I16" t="s">
         <v>59</v>
@@ -4252,7 +4279,7 @@
     </row>
     <row r="17" customFormat="1" spans="8:9">
       <c r="H17" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="I17" t="s">
         <v>59</v>
@@ -4270,12 +4297,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4499,71 +4526,125 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" t="s">
+    <row r="18" spans="2:11">
+      <c r="B18" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C18" t="s">
         <v>257</v>
       </c>
+      <c r="E18" t="s">
+        <v>277</v>
+      </c>
       <c r="F18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H18" t="s">
+        <v>279</v>
+      </c>
+      <c r="I18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I19" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" t="s">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="8:9">
-      <c r="H19" t="s">
+    <row r="26" spans="8:9">
+      <c r="H26" t="s">
         <v>195</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="8:9">
-      <c r="H20" t="s">
-        <v>278</v>
-      </c>
-      <c r="I20" t="s">
+    <row r="27" spans="8:9">
+      <c r="H27" t="s">
+        <v>290</v>
+      </c>
+      <c r="I27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" t="s">
-        <v>257</v>
-      </c>
-      <c r="E23" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" t="s">
-        <v>281</v>
-      </c>
-      <c r="H23" t="s">
-        <v>282</v>
-      </c>
-      <c r="I23" t="s">
-        <v>283</v>
-      </c>
-      <c r="K23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11">
-      <c r="H24" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" t="s">
         <v>285</v>
       </c>
-      <c r="I24" t="s">
-        <v>286</v>
-      </c>
-      <c r="K24" t="s">
-        <v>287</v>
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4690,116 +4771,116 @@
     </row>
     <row r="6" customFormat="1" spans="2:6">
       <c r="B6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:6">
       <c r="B8" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:3">
       <c r="B16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:5">
       <c r="B18" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:11">
       <c r="B20" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E20" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H20" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="I20" t="s">
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:11">
       <c r="B22" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H22" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:1">
@@ -4809,16 +4890,16 @@
     </row>
     <row r="26" customFormat="1" spans="2:9">
       <c r="B26" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
@@ -4829,16 +4910,16 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F28" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H28" t="s">
         <v>99</v>
@@ -4849,7 +4930,7 @@
     </row>
     <row r="29" spans="8:9">
       <c r="H29" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I29" t="s">
         <v>59</v>
@@ -4857,7 +4938,7 @@
     </row>
     <row r="30" spans="8:9">
       <c r="H30" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="I30" t="s">
         <v>70</v>
@@ -4865,58 +4946,58 @@
     </row>
     <row r="32" customFormat="1" spans="2:11">
       <c r="B32" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C32" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E32" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H32" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="I32" t="s">
         <v>59</v>
       </c>
       <c r="K32" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="2:5">
       <c r="B34" s="4" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E34" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E36" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H36" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I37" t="s">
         <v>81</v>
@@ -4944,7 +5025,7 @@
         <v>59</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5073,21 +5154,21 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="I9" t="s">
         <v>59</v>
@@ -5095,7 +5176,7 @@
     </row>
     <row r="10" spans="8:9">
       <c r="H10" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -5103,15 +5184,15 @@
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="I11" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
@@ -5119,7 +5200,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -5127,7 +5208,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
@@ -5135,7 +5216,7 @@
     </row>
     <row r="15" spans="8:9">
       <c r="H15" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -5143,7 +5224,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
@@ -5151,7 +5232,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -5159,58 +5240,58 @@
     </row>
     <row r="18" spans="8:9">
       <c r="H18" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="I18" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="I19" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="I20" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="H21" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="I21" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="I22" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I23" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="8:9">
       <c r="H24" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="I24" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5340,29 +5421,29 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F6" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H10" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="I10" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s">
         <v>59</v>
@@ -5370,13 +5451,13 @@
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I12" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K12" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5505,21 +5586,21 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F6" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="H10" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I10" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5646,10 +5727,10 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -5657,64 +5738,64 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H10" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="I10" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="K10" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="8:11">
       <c r="H11" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="I11" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K11" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="6:6">
@@ -5847,21 +5928,21 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -5869,7 +5950,7 @@
     </row>
     <row r="8" spans="8:9">
       <c r="H8" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -5877,80 +5958,80 @@
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K10" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
         <v>384</v>
       </c>
-      <c r="C13" t="s">
-        <v>375</v>
-      </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H13" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="I15" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K15" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E17" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H17" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -5958,35 +6039,35 @@
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
       </c>
       <c r="K18" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="I20" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K20" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -6113,35 +6194,35 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:6">
       <c r="B7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:9">
       <c r="B9" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H9" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>

--- a/Luban/ExcelConfig/Datas/__beans__.xlsx
+++ b/Luban/ExcelConfig/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Behavior" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="461">
   <si>
     <t>##var</t>
   </si>
@@ -204,10 +204,16 @@
     <t>ai.AIInfo</t>
   </si>
   <si>
+    <t>ai.PlayerPickClosestTargetInfo</t>
+  </si>
+  <si>
+    <t>玩家挑选最近目标</t>
+  </si>
+  <si>
     <t>ai.PlayerAutoCasterInfo</t>
   </si>
   <si>
-    <t>智能释放技能</t>
+    <t>玩家自动释放技能</t>
   </si>
   <si>
     <t>ai.PatrolInfo</t>
@@ -234,12 +240,30 @@
     <t>随从默认智能进攻</t>
   </si>
   <si>
+    <t>ai.MinionWuyiIntelligentAssaultInfo</t>
+  </si>
+  <si>
+    <t>随从巫医智能进攻</t>
+  </si>
+  <si>
     <t>ai.FollowMaster</t>
   </si>
   <si>
     <t>跟随主人</t>
   </si>
   <si>
+    <t>ai.LoiterFollowMaster</t>
+  </si>
+  <si>
+    <t>游荡跟随主人</t>
+  </si>
+  <si>
+    <t>loiter_range</t>
+  </si>
+  <si>
+    <t>游荡范围</t>
+  </si>
+  <si>
     <t>######时间线</t>
   </si>
   <si>
@@ -297,6 +321,18 @@
     <t>anim</t>
   </si>
   <si>
+    <t>timeline.LockAnimaInfo</t>
+  </si>
+  <si>
+    <t>锁定动画</t>
+  </si>
+  <si>
+    <t>timeline.UnlockAnimaInfo</t>
+  </si>
+  <si>
+    <t>解锁动画</t>
+  </si>
+  <si>
     <t>timeline.CureHpInfo</t>
   </si>
   <si>
@@ -387,13 +423,40 @@
     <t>打开警示标</t>
   </si>
   <si>
+    <t>类似剑魔Q的那种警示</t>
+  </si>
+  <si>
     <t>asset_name</t>
   </si>
   <si>
     <t>资源名</t>
   </si>
   <si>
-    <t>警示标类型, 0代表剑魔q那种范围碰撞类型, 1代表ez的q那种弹道类型</t>
+    <t>center</t>
+  </si>
+  <si>
+    <t>hmath.Vector3#sep=`</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>timeline.OpenWarningBoard2Info</t>
+  </si>
+  <si>
+    <t>打开警示标2</t>
+  </si>
+  <si>
+    <t>类似EZ的Q的那种弹道警示</t>
+  </si>
+  <si>
+    <t>timeline.OpenWarningBoard3Info</t>
+  </si>
+  <si>
+    <t>打开警示标3</t>
+  </si>
+  <si>
+    <t>在目标位置打开警示标, 类似泽拉斯的w</t>
   </si>
   <si>
     <t>timeline.CloseWarningBoardInfo</t>
@@ -477,12 +540,18 @@
     <t>timeline.HarmOfPointBoltInfo</t>
   </si>
   <si>
-    <t>目标点投射伤害</t>
+    <t>指点投射伤害</t>
   </si>
   <si>
     <t>奶妈的q</t>
   </si>
   <si>
+    <t>timeline.HarmOfLiuxingluoBoltInfo</t>
+  </si>
+  <si>
+    <t>流星落伤害</t>
+  </si>
+  <si>
     <t>timeline.HarmOfDibozhanBoltInfo</t>
   </si>
   <si>
@@ -528,6 +597,12 @@
     <t>dest</t>
   </si>
   <si>
+    <t>timeline.ContinuesPlayAnimInfo</t>
+  </si>
+  <si>
+    <t>持续播放动画</t>
+  </si>
+  <si>
     <t>timeline.MoveInfo</t>
   </si>
   <si>
@@ -585,7 +660,7 @@
     <t>碰撞伤害</t>
   </si>
   <si>
-    <t>剑魔的q</t>
+    <t>指定碰撞器来检测碰撞伤害</t>
   </si>
   <si>
     <t>collider_name</t>
@@ -594,468 +669,495 @@
     <t>碰撞器名</t>
   </si>
   <si>
-    <t>timeline.HarmOfSphereColliderInfo</t>
-  </si>
-  <si>
-    <t>球体碰撞伤害</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>hmath.Vector3#sep=`</t>
+    <t>timeline.ContinuousHarmOfColliderInfo</t>
+  </si>
+  <si>
+    <t>持续碰撞伤害</t>
+  </si>
+  <si>
+    <t>盖伦E</t>
+  </si>
+  <si>
+    <t>timeline.DeadBodyVampirOfColliderInfo</t>
+  </si>
+  <si>
+    <t>碰撞尸体吸血</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>吸取尸体总血量的百分之多少</t>
+  </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>timeline.DeadAbortCheckInfo</t>
+  </si>
+  <si>
+    <t>死亡终止检查</t>
+  </si>
+  <si>
+    <t>如果当前技能的目标已经死亡, 则终止</t>
+  </si>
+  <si>
+    <t>##status</t>
+  </si>
+  <si>
+    <t>timeline.TsStatusHarmInfo</t>
+  </si>
+  <si>
+    <t>timeline.TsStatusContinuousHarmInfo</t>
+  </si>
+  <si>
+    <t>状态持续伤害</t>
+  </si>
+  <si>
+    <t>internalTime</t>
+  </si>
+  <si>
+    <t>时间间隔</t>
+  </si>
+  <si>
+    <t>timeline.LiuXueInfo</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>timeline.RanshaoInfo</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <t>timeline.WenyiInfo</t>
+  </si>
+  <si>
+    <t>瘟疫</t>
+  </si>
+  <si>
+    <t>timeline.WenyichuanboInfo</t>
+  </si>
+  <si>
+    <t>瘟疫传播</t>
+  </si>
+  <si>
+    <t>chuanbocengshu</t>
+  </si>
+  <si>
+    <t>每次传播的层数</t>
+  </si>
+  <si>
+    <t>chuanbofanwei</t>
+  </si>
+  <si>
+    <t>传播范围</t>
+  </si>
+  <si>
+    <t>######阶段线</t>
+  </si>
+  <si>
+    <t>timestageline.TimeStageLineInfo</t>
+  </si>
+  <si>
+    <t>阶段线信息基类</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>放到哪个索引下</t>
+  </si>
+  <si>
+    <t>timestageline.ActionInfo</t>
+  </si>
+  <si>
+    <t>动作阶段节点</t>
+  </si>
+  <si>
+    <t>阶段线动作, 采用并行逻辑</t>
+  </si>
+  <si>
+    <t>timestageline.ConditionOrInfo</t>
+  </si>
+  <si>
+    <t>或条件阶段节点</t>
+  </si>
+  <si>
+    <t>阶段线条件, 采用或逻辑</t>
+  </si>
+  <si>
+    <t>timestageline.ConditionAndInfo</t>
+  </si>
+  <si>
+    <t>与条件阶段节点</t>
+  </si>
+  <si>
+    <t>阶段线条件, 采用与逻辑</t>
+  </si>
+  <si>
+    <t>######施法器评估</t>
+  </si>
+  <si>
+    <t>casterevaluate.CasterEvaluateInfo</t>
+  </si>
+  <si>
+    <t>casterevaluate.CooldownCheckInfo</t>
+  </si>
+  <si>
+    <t>施法器冷却评估</t>
+  </si>
+  <si>
+    <t>casterevaluate.ManaCheckInfo</t>
+  </si>
+  <si>
+    <t>施法器魔法消耗评估</t>
+  </si>
+  <si>
+    <t>casterevaluate.PrioritiesEvaluateInfo</t>
+  </si>
+  <si>
+    <t>施法器优先器评估</t>
+  </si>
+  <si>
+    <t>casterevaluate.TargetEvaluateInfo</t>
+  </si>
+  <si>
+    <t>施法器目标评估</t>
+  </si>
+  <si>
+    <t>评估目标是否符合条件, 但不主动挑选目标</t>
+  </si>
+  <si>
+    <t>casterevaluate.PickTargetInfo</t>
+  </si>
+  <si>
+    <t>施法器挑选目标</t>
+  </si>
+  <si>
+    <t>如果没有主目标, 则挑选目标</t>
+  </si>
+  <si>
+    <t>casterevaluate.PickBackTarget</t>
+  </si>
+  <si>
+    <t>施法器挑选背对目标</t>
+  </si>
+  <si>
+    <t>casterevaluate.ApproachTargetInfo</t>
+  </si>
+  <si>
+    <t>施法器靠近目标</t>
+  </si>
+  <si>
+    <t>当与目标距离不足时, 靠近目标</t>
+  </si>
+  <si>
+    <t>casterevaluate.HealthLowerInfo</t>
+  </si>
+  <si>
+    <t>施法器低血量评估</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>低于该阈值触发</t>
+  </si>
+  <si>
+    <t>casterevaluate.CasterSummoningInfo</t>
+  </si>
+  <si>
+    <t>施法器召唤评估</t>
+  </si>
+  <si>
+    <t>评估是否超过最大召唤数之类的</t>
+  </si>
+  <si>
+    <t>######冒险</t>
+  </si>
+  <si>
+    <t>adventurescheme.AdventureInfo</t>
+  </si>
+  <si>
+    <t>adventurescheme.DefaultCheckpointsAdventureInfo</t>
+  </si>
+  <si>
+    <t>默认闯关冒险</t>
+  </si>
+  <si>
+    <t>adventurescheme.DefaultBigMapAdventureInfo</t>
+  </si>
+  <si>
+    <t>默认大地图冒险</t>
+  </si>
+  <si>
+    <t>numeric.Info</t>
+  </si>
+  <si>
+    <t>数值信息基类</t>
+  </si>
+  <si>
+    <t>numeric.BasicValueInfo</t>
+  </si>
+  <si>
+    <t>基值</t>
+  </si>
+  <si>
+    <t>基础值, 比如人物的初始血量, 攻击力</t>
+  </si>
+  <si>
+    <t>NumericType</t>
+  </si>
+  <si>
+    <t>数值类型. hp, mp...</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>值类型标记(i-int;l-long;f-float)</t>
+  </si>
+  <si>
+    <t>numeric.AttachValueInfo</t>
+  </si>
+  <si>
+    <t>附加值</t>
+  </si>
+  <si>
+    <t>数值类型</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>NumericLayer</t>
+  </si>
+  <si>
+    <t>数值层数(在第几层计算)</t>
+  </si>
+  <si>
+    <t>NumericModel</t>
+  </si>
+  <si>
+    <t>数值模式(按固定值或百分比计算)</t>
+  </si>
+  <si>
+    <t>numeric.DamageFormulaInfo</t>
+  </si>
+  <si>
+    <t>伤害配方</t>
+  </si>
+  <si>
+    <t>示例: 造成30%物理攻击力 + 70%法术攻击力的真实伤害</t>
+  </si>
+  <si>
+    <t>damage_formulas</t>
+  </si>
+  <si>
+    <t>(list#sep=;),FormulaInfo#sep=/</t>
+  </si>
+  <si>
+    <t>配方</t>
+  </si>
+  <si>
+    <t>damage_type</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>伤害类型. 物理、法术、真实...</t>
+  </si>
+  <si>
+    <t>numeric.FormulaInfo</t>
+  </si>
+  <si>
+    <t>数值配方</t>
+  </si>
+  <si>
+    <t>numeric.FormulaInfo1</t>
+  </si>
+  <si>
+    <t>配方1</t>
+  </si>
+  <si>
+    <t>最常用的属性数值配方</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>numeric.FormulaInfo2</t>
+  </si>
+  <si>
+    <t>配方2</t>
+  </si>
+  <si>
+    <t>根据敌人总血量的百分比</t>
+  </si>
+  <si>
+    <t>numeric.FormulaInfo3</t>
+  </si>
+  <si>
+    <t>配方3</t>
+  </si>
+  <si>
+    <t>根据敌人总蓝量的百分比</t>
+  </si>
+  <si>
+    <t>procedureline.Info</t>
+  </si>
+  <si>
+    <t>流水线相关信息基类</t>
+  </si>
+  <si>
+    <t>procedureline.Null</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>因为不能不填, 所以专门设置一个空的类型, 用来代表空</t>
+  </si>
+  <si>
+    <t>procedureline.WorkerInfo</t>
+  </si>
+  <si>
+    <t>procedureline.WorkerNull</t>
+  </si>
+  <si>
+    <t>工人空</t>
+  </si>
+  <si>
+    <t>##施法</t>
+  </si>
+  <si>
+    <t>procedureline.CastWorkerInfo</t>
+  </si>
+  <si>
+    <t>procedureline.CastWorkerNull</t>
+  </si>
+  <si>
+    <t>施法工人空</t>
+  </si>
+  <si>
+    <t>procedureline.HarmProbabilisticCastInfo</t>
+  </si>
+  <si>
+    <t>伤害时概率施法</t>
+  </si>
+  <si>
+    <t>造成伤害时, 有概率触发施法</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>触发概率, 0-1之间</t>
+  </si>
+  <si>
+    <t>procedureline.HealthRatioCastInfo</t>
+  </si>
+  <si>
+    <t>血线施法</t>
+  </si>
+  <si>
+    <t>比如血量低于30%时触发xxx技能</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>血量比例, 0-1之间</t>
+  </si>
+  <si>
+    <t>procedureline.ProbAdditionalStatusOnHarmInfo</t>
+  </si>
+  <si>
+    <t>当伤害时概率附加状态</t>
+  </si>
+  <si>
+    <t>添加一个默认的状态</t>
+  </si>
+  <si>
+    <t>probabilistic</t>
+  </si>
+  <si>
+    <t>procedureline.ProbAdditionalStatusOnHarmInfo2</t>
+  </si>
+  <si>
+    <t>当伤害时概率附加状态2</t>
+  </si>
+  <si>
+    <t>添加一个自定义的状态</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>procedureline.ProbabilisticRepetitionCastInfo</t>
+  </si>
+  <si>
+    <t>概率重复施法</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
+  </si>
+  <si>
+    <t>procedureline.MissBeSelectOnHarmInfo</t>
+  </si>
+  <si>
+    <t>伤害时丢失被选中</t>
+  </si>
+  <si>
+    <t>procedureline.SplitBoltOnHitInfo</t>
+  </si>
+  <si>
+    <t>命中时分裂投射物</t>
+  </si>
+  <si>
+    <t>split_num</t>
+  </si>
+  <si>
+    <t>分裂出几个投射物</t>
+  </si>
+  <si>
+    <t>bolt_alias</t>
+  </si>
+  <si>
+    <t>大小</t>
   </si>
   <si>
     <t>radius</t>
   </si>
   <si>
-    <t>timeline.HarmOfBoxColliderInfo</t>
-  </si>
-  <si>
-    <t>盒体碰撞伤害</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>timeline.DeadBodyVampirOfSphereColliderInfo</t>
-  </si>
-  <si>
-    <t>球体碰撞尸体吸血</t>
-  </si>
-  <si>
-    <t>半径</t>
-  </si>
-  <si>
-    <t>pct</t>
-  </si>
-  <si>
-    <t>吸取尸体总血量的百分之多少</t>
-  </si>
-  <si>
-    <t>timeline.DeadAbortCheckInfo</t>
-  </si>
-  <si>
-    <t>死亡终止检查</t>
-  </si>
-  <si>
-    <t>如果当前技能的目标已经死亡, 则终止</t>
-  </si>
-  <si>
-    <t>##status</t>
-  </si>
-  <si>
-    <t>timeline.TsStatusHarmInfo</t>
-  </si>
-  <si>
-    <t>timeline.TsStatusContinuousHarmInfo</t>
-  </si>
-  <si>
-    <t>状态持续伤害</t>
-  </si>
-  <si>
-    <t>internalTime</t>
-  </si>
-  <si>
-    <t>时间间隔</t>
-  </si>
-  <si>
-    <t>timeline.LiuXueInfo</t>
-  </si>
-  <si>
-    <t>流血</t>
-  </si>
-  <si>
-    <t>timeline.RanshaoInfo</t>
-  </si>
-  <si>
-    <t>燃烧</t>
-  </si>
-  <si>
-    <t>timeline.WenyiInfo</t>
-  </si>
-  <si>
-    <t>瘟疫</t>
-  </si>
-  <si>
-    <t>timeline.WenyichuanboInfo</t>
-  </si>
-  <si>
-    <t>瘟疫传播</t>
-  </si>
-  <si>
-    <t>chuanbocengshu</t>
-  </si>
-  <si>
-    <t>每次传播的层数</t>
-  </si>
-  <si>
-    <t>chuanbofanwei</t>
-  </si>
-  <si>
-    <t>传播范围</t>
-  </si>
-  <si>
-    <t>######阶段线</t>
-  </si>
-  <si>
-    <t>timestageline.TimeStageLineInfo</t>
-  </si>
-  <si>
-    <t>阶段线信息基类</t>
-  </si>
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t>放到哪个索引下</t>
-  </si>
-  <si>
-    <t>timestageline.ActionInfo</t>
-  </si>
-  <si>
-    <t>动作阶段节点</t>
-  </si>
-  <si>
-    <t>阶段线动作, 采用并行逻辑</t>
-  </si>
-  <si>
-    <t>timestageline.ConditionOrInfo</t>
-  </si>
-  <si>
-    <t>或条件阶段节点</t>
-  </si>
-  <si>
-    <t>阶段线条件, 采用或逻辑</t>
-  </si>
-  <si>
-    <t>timestageline.ConditionAndInfo</t>
-  </si>
-  <si>
-    <t>与条件阶段节点</t>
-  </si>
-  <si>
-    <t>阶段线条件, 采用与逻辑</t>
-  </si>
-  <si>
-    <t>######施法器评估</t>
-  </si>
-  <si>
-    <t>casterevaluate.CasterEvaluateInfo</t>
-  </si>
-  <si>
-    <t>casterevaluate.CooldownCheckInfo</t>
-  </si>
-  <si>
-    <t>施法器冷却评估</t>
-  </si>
-  <si>
-    <t>casterevaluate.ManaCheckInfo</t>
-  </si>
-  <si>
-    <t>施法器魔法消耗评估</t>
-  </si>
-  <si>
-    <t>casterevaluate.PrioritiesEvaluateInfo</t>
-  </si>
-  <si>
-    <t>施法器优先器评估</t>
-  </si>
-  <si>
-    <t>casterevaluate.PickTargetInfo</t>
-  </si>
-  <si>
-    <t>施法器选择目标</t>
-  </si>
-  <si>
-    <t>casterevaluate.PickAndApproachTargetInfo</t>
-  </si>
-  <si>
-    <t>施法器选择并自动靠近目标</t>
-  </si>
-  <si>
-    <t>casterevaluate.HealthLowerInfo</t>
-  </si>
-  <si>
-    <t>施法器低血量评估</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>低于该阈值触发</t>
-  </si>
-  <si>
-    <t>casterevaluate.CasterSummoningInfo</t>
-  </si>
-  <si>
-    <t>施法器召唤评估</t>
-  </si>
-  <si>
-    <t>评估是否超过最大召唤数之类的</t>
-  </si>
-  <si>
-    <t>######冒险</t>
-  </si>
-  <si>
-    <t>adventurescheme.AdventureInfo</t>
-  </si>
-  <si>
-    <t>adventurescheme.DefaultCheckpointsAdventureInfo</t>
-  </si>
-  <si>
-    <t>默认闯关冒险</t>
-  </si>
-  <si>
-    <t>adventurescheme.DefaultBigMapAdventureInfo</t>
-  </si>
-  <si>
-    <t>默认大地图冒险</t>
-  </si>
-  <si>
-    <t>numeric.Info</t>
-  </si>
-  <si>
-    <t>数值信息基类</t>
-  </si>
-  <si>
-    <t>numeric.BasicValueInfo</t>
-  </si>
-  <si>
-    <t>基值</t>
-  </si>
-  <si>
-    <t>基础值, 比如人物的初始血量, 攻击力</t>
-  </si>
-  <si>
-    <t>NumericType</t>
-  </si>
-  <si>
-    <t>数值类型. hp, mp...</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>值类型标记(i-int;l-long;f-float)</t>
-  </si>
-  <si>
-    <t>numeric.AttachValueInfo</t>
-  </si>
-  <si>
-    <t>附加值</t>
-  </si>
-  <si>
-    <t>数值类型</t>
-  </si>
-  <si>
-    <t>layer</t>
-  </si>
-  <si>
-    <t>NumericLayer</t>
-  </si>
-  <si>
-    <t>数值层数(在第几层计算)</t>
-  </si>
-  <si>
-    <t>NumericModel</t>
-  </si>
-  <si>
-    <t>数值模式(按固定值或百分比计算)</t>
-  </si>
-  <si>
-    <t>numeric.DamageFormulaInfo</t>
-  </si>
-  <si>
-    <t>伤害配方</t>
-  </si>
-  <si>
-    <t>示例: 造成30%物理攻击力 + 70%法术攻击力的真实伤害</t>
-  </si>
-  <si>
-    <t>damage_formulas</t>
-  </si>
-  <si>
-    <t>(list#sep=;),FormulaInfo#sep=/</t>
-  </si>
-  <si>
-    <t>配方</t>
-  </si>
-  <si>
-    <t>damage_type</t>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>伤害类型. 物理、法术、真实...</t>
-  </si>
-  <si>
-    <t>numeric.FormulaInfo</t>
-  </si>
-  <si>
-    <t>数值配方</t>
-  </si>
-  <si>
-    <t>numeric.FormulaInfo1</t>
-  </si>
-  <si>
-    <t>配方1</t>
-  </si>
-  <si>
-    <t>最常用的属性数值配方</t>
-  </si>
-  <si>
-    <t>fix</t>
-  </si>
-  <si>
-    <t>numeric.FormulaInfo2</t>
-  </si>
-  <si>
-    <t>配方2</t>
-  </si>
-  <si>
-    <t>根据敌人总血量的百分比</t>
-  </si>
-  <si>
-    <t>numeric.FormulaInfo3</t>
-  </si>
-  <si>
-    <t>配方3</t>
-  </si>
-  <si>
-    <t>根据敌人总蓝量的百分比</t>
-  </si>
-  <si>
-    <t>procedureline.Info</t>
-  </si>
-  <si>
-    <t>流水线相关信息基类</t>
-  </si>
-  <si>
-    <t>procedureline.Null</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>因为不能不填, 所以专门设置一个空的类型, 用来代表空</t>
-  </si>
-  <si>
-    <t>procedureline.WorkerInfo</t>
-  </si>
-  <si>
-    <t>procedureline.WorkerNull</t>
-  </si>
-  <si>
-    <t>工人空</t>
-  </si>
-  <si>
-    <t>##施法</t>
-  </si>
-  <si>
-    <t>procedureline.CastWorkerInfo</t>
-  </si>
-  <si>
-    <t>procedureline.CastWorkerNull</t>
-  </si>
-  <si>
-    <t>施法工人空</t>
-  </si>
-  <si>
-    <t>procedureline.HarmProbabilisticCastInfo</t>
-  </si>
-  <si>
-    <t>伤害时概率施法</t>
-  </si>
-  <si>
-    <t>造成伤害时, 有概率触发施法</t>
-  </si>
-  <si>
-    <t>probability</t>
-  </si>
-  <si>
-    <t>触发概率, 0-1之间</t>
-  </si>
-  <si>
-    <t>procedureline.HealthRatioCastInfo</t>
-  </si>
-  <si>
-    <t>血线施法</t>
-  </si>
-  <si>
-    <t>比如血量低于30%时触发xxx技能</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>血量比例, 0-1之间</t>
-  </si>
-  <si>
-    <t>procedureline.AdditionalStatusOnAbilityDamageInfo</t>
-  </si>
-  <si>
-    <t>当技能伤害时附加状态</t>
-  </si>
-  <si>
-    <t>添加一个默认的状态</t>
-  </si>
-  <si>
-    <t>procedureline.AdditionalStatusOnAbilityDamageInfo2</t>
-  </si>
-  <si>
-    <t>当技能伤害时附加状态2</t>
-  </si>
-  <si>
-    <t>添加一个自定义的状态</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>procedureline.ProbabilisticRepetitionCastInfo</t>
-  </si>
-  <si>
-    <t>概率重复施法</t>
-  </si>
-  <si>
-    <t>0 - 1</t>
-  </si>
-  <si>
-    <t>procedureline.MissBeSelectOnHarmInfo</t>
-  </si>
-  <si>
-    <t>伤害时丢失被选中</t>
-  </si>
-  <si>
-    <t>procedureline.SplitBoltOnHitInfo</t>
-  </si>
-  <si>
-    <t>命中时分裂投射物</t>
-  </si>
-  <si>
-    <t>split_num</t>
-  </si>
-  <si>
-    <t>分裂出几个投射物</t>
-  </si>
-  <si>
-    <t>bolt_alias</t>
-  </si>
-  <si>
     <t>分裂范围</t>
   </si>
   <si>
+    <t>procedureline.AddStageDurationInfo</t>
+  </si>
+  <si>
+    <t>增加阶段持续时间</t>
+  </si>
+  <si>
+    <t>stage_type</t>
+  </si>
+  <si>
+    <t>StageType</t>
+  </si>
+  <si>
     <t>priority.Info</t>
   </si>
   <si>
@@ -1077,42 +1179,45 @@
     <t>enter_pri</t>
   </si>
   <si>
-    <t>resist_pri</t>
+    <t>&lt;0代表始终不进入, 除非特别指定</t>
+  </si>
+  <si>
+    <t>obs_pri</t>
+  </si>
+  <si>
+    <t>keep_pri</t>
   </si>
   <si>
     <t>exclu_pri</t>
   </si>
   <si>
-    <t>keep_pri</t>
+    <t>run_pri</t>
   </si>
   <si>
     <t>dis_pri</t>
   </si>
   <si>
-    <t>run_pri</t>
-  </si>
-  <si>
     <t>sp_pass</t>
   </si>
   <si>
     <t>(list#sep=;),TagType</t>
   </si>
   <si>
-    <t>sp_inter</t>
+    <t>sp_obs</t>
+  </si>
+  <si>
+    <t>sp_keep</t>
   </si>
   <si>
     <t>sp_exclu</t>
   </si>
   <si>
-    <t>sp_keep</t>
+    <t>sp_run</t>
   </si>
   <si>
     <t>sp_dis</t>
   </si>
   <si>
-    <t>sp_run</t>
-  </si>
-  <si>
     <t>allow_reenter</t>
   </si>
   <si>
@@ -1131,9 +1236,6 @@
     <t>stageType</t>
   </si>
   <si>
-    <t>StageType</t>
-  </si>
-  <si>
     <t>actions</t>
   </si>
   <si>
@@ -1179,10 +1281,10 @@
     <t>控制码</t>
   </si>
   <si>
-    <t>support_continue</t>
-  </si>
-  <si>
-    <t>是否支持连点, 连点就是支持按键持续按下</t>
+    <t>support_burst_fire</t>
+  </si>
+  <si>
+    <t>是否支持连发, 连发就是按住不松就持续触发</t>
   </si>
   <si>
     <t>cast.AlwaysCastInfo</t>
@@ -2282,27 +2384,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L235"/>
+  <dimension ref="A1:L261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K168" sqref="K168"/>
+      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
     <col min="7" max="7" width="6.75" customWidth="1"/>
     <col min="8" max="8" width="19.9166666666667" customWidth="1"/>
     <col min="9" max="9" width="42.125" customWidth="1"/>
     <col min="10" max="10" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="47.625" customWidth="1"/>
+    <col min="11" max="11" width="61.25" customWidth="1"/>
     <col min="12" max="12" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2587,240 +2689,240 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C39" t="s">
         <v>53</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" t="s">
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C41" t="s">
         <v>53</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E41" t="s">
         <v>57</v>
       </c>
-      <c r="H42" t="s">
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="I42" t="s">
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" t="s">
+      <c r="H43" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="2:5">
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="K53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
         <v>21</v>
       </c>
-      <c r="F62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" t="s">
-        <v>70</v>
-      </c>
-      <c r="H70" t="s">
-        <v>73</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s">
         <v>26</v>
       </c>
-      <c r="K70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="8:9">
-      <c r="H71" t="s">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E73" t="s">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s">
-        <v>79</v>
+      <c r="K73" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" t="s">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
         <v>80</v>
       </c>
-      <c r="I74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="5"/>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" t="s">
-        <v>72</v>
-      </c>
       <c r="E76" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9">
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="8:9">
-      <c r="H80" t="s">
-        <v>88</v>
-      </c>
-      <c r="I80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D82"/>
       <c r="E82" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" t="s">
-        <v>26</v>
-      </c>
-      <c r="K82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
-      </c>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-      <c r="I84" t="s">
-        <v>81</v>
-      </c>
-      <c r="K84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:9">
       <c r="B86" t="s">
         <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E86" t="s">
         <v>98</v>
@@ -2829,1074 +2931,1281 @@
         <v>99</v>
       </c>
       <c r="I86" t="s">
-        <v>81</v>
-      </c>
-      <c r="K86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9">
+      <c r="H87" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" t="s">
+      <c r="I87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" t="s">
         <v>101</v>
       </c>
-      <c r="C88" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" t="s">
         <v>102</v>
       </c>
-      <c r="H88" t="s">
-        <v>99</v>
-      </c>
-      <c r="I88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="B90" t="s">
+      <c r="H89" t="s">
         <v>103</v>
       </c>
-      <c r="C90" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+      <c r="K89" t="s">
         <v>104</v>
       </c>
-      <c r="H90" t="s">
-        <v>99</v>
-      </c>
-      <c r="I90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" t="s">
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" t="s">
         <v>105</v>
       </c>
-      <c r="C92" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="C91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" t="s">
         <v>106</v>
       </c>
-      <c r="H92" t="s">
-        <v>99</v>
-      </c>
-      <c r="I92" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" t="s">
+      <c r="H91" t="s">
         <v>107</v>
       </c>
-      <c r="C94" t="s">
-        <v>72</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="I91" t="s">
+        <v>89</v>
+      </c>
+      <c r="K91" t="s">
         <v>108</v>
       </c>
-      <c r="H94" t="s">
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" t="s">
         <v>109</v>
       </c>
-      <c r="I94" t="s">
-        <v>81</v>
-      </c>
-      <c r="K94" t="s">
+      <c r="C93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" t="s">
+      <c r="H93" t="s">
         <v>111</v>
       </c>
-      <c r="C96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="I93" t="s">
+        <v>89</v>
+      </c>
+      <c r="K93" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
-      <c r="B98" t="s">
+    <row r="95" spans="2:9">
+      <c r="B95" t="s">
         <v>113</v>
       </c>
-      <c r="C98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" t="s">
         <v>114</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H95" t="s">
+        <v>111</v>
+      </c>
+      <c r="I95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" t="s">
         <v>115</v>
       </c>
-      <c r="I98" t="s">
-        <v>81</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="C97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="99" spans="8:11">
+      <c r="H97" t="s">
+        <v>111</v>
+      </c>
+      <c r="I97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" t="s">
+        <v>118</v>
+      </c>
       <c r="H99" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="I99" t="s">
-        <v>26</v>
-      </c>
-      <c r="K99" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H101" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I101" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K101" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
       <c r="B105" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C107" t="s">
-        <v>72</v>
-      </c>
-      <c r="F107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" t="s">
         <v>126</v>
       </c>
-      <c r="C109" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F105" t="s">
         <v>127</v>
       </c>
-      <c r="F109" t="s">
+      <c r="H105" t="s">
         <v>128</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I105" t="s">
+        <v>89</v>
+      </c>
+      <c r="K105" t="s">
         <v>129</v>
       </c>
-      <c r="I109" t="s">
+    </row>
+    <row r="106" spans="8:9">
+      <c r="H106" t="s">
         <v>130</v>
       </c>
-      <c r="K109" t="s">
+      <c r="I106" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" t="s">
+    <row r="107" spans="8:9">
+      <c r="H107" t="s">
         <v>132</v>
       </c>
-      <c r="C111" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="I107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" t="s">
         <v>133</v>
       </c>
-      <c r="F111" t="s">
+      <c r="C110" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" t="s">
         <v>134</v>
       </c>
-      <c r="H111" t="s">
-        <v>129</v>
-      </c>
-      <c r="I111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="8:11">
+      <c r="F110" t="s">
+        <v>135</v>
+      </c>
+      <c r="H110" t="s">
+        <v>128</v>
+      </c>
+      <c r="I110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" t="s">
+        <v>137</v>
+      </c>
+      <c r="F112" t="s">
+        <v>138</v>
+      </c>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I112" t="s">
-        <v>81</v>
-      </c>
-      <c r="K112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="8:11">
-      <c r="H113" t="s">
-        <v>137</v>
-      </c>
-      <c r="I113" t="s">
-        <v>59</v>
-      </c>
-      <c r="K113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
       <c r="B115" t="s">
         <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E115" t="s">
         <v>140</v>
       </c>
-      <c r="F115" t="s">
+      <c r="H115" t="s">
+        <v>128</v>
+      </c>
+      <c r="I115" t="s">
+        <v>89</v>
+      </c>
+      <c r="K115" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
         <v>141</v>
       </c>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-      <c r="I115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="8:11">
-      <c r="H116" t="s">
-        <v>135</v>
-      </c>
-      <c r="I116" t="s">
-        <v>81</v>
-      </c>
-      <c r="K116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="8:11">
-      <c r="H117" t="s">
+      <c r="C117" t="s">
+        <v>80</v>
+      </c>
+      <c r="E117" t="s">
         <v>142</v>
       </c>
-      <c r="I117" t="s">
-        <v>59</v>
-      </c>
-      <c r="K117" t="s">
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="118" spans="8:11">
-      <c r="H118" t="s">
-        <v>137</v>
-      </c>
-      <c r="I118" t="s">
-        <v>59</v>
-      </c>
-      <c r="K118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9">
-      <c r="B120" t="s">
+      <c r="C119" t="s">
+        <v>80</v>
+      </c>
+      <c r="E119" t="s">
         <v>144</v>
       </c>
-      <c r="C120" t="s">
-        <v>124</v>
-      </c>
-      <c r="E120" t="s">
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" t="s">
         <v>145</v>
       </c>
-      <c r="F120" t="s">
+      <c r="C121" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" t="s">
         <v>146</v>
       </c>
-      <c r="H120" t="s">
-        <v>129</v>
-      </c>
-      <c r="I120" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="8:11">
-      <c r="H121" t="s">
-        <v>135</v>
-      </c>
-      <c r="I121" t="s">
-        <v>81</v>
-      </c>
-      <c r="K121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="8:9">
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-      <c r="I122" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" t="s">
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" t="s">
         <v>147</v>
       </c>
-      <c r="C124" t="s">
-        <v>124</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="C123" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" t="s">
         <v>148</v>
       </c>
-      <c r="H124" t="s">
-        <v>129</v>
-      </c>
-      <c r="I124" t="s">
-        <v>130</v>
-      </c>
-      <c r="K124" t="s">
+      <c r="F123" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="125" spans="8:9">
+      <c r="H123" t="s">
+        <v>150</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+      <c r="K123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" t="s">
+        <v>154</v>
+      </c>
+      <c r="F125" t="s">
+        <v>155</v>
+      </c>
       <c r="H125" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I125" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="8:11">
       <c r="H126" t="s">
+        <v>156</v>
+      </c>
+      <c r="I126" t="s">
+        <v>89</v>
+      </c>
+      <c r="K126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11">
+      <c r="H127" t="s">
+        <v>158</v>
+      </c>
+      <c r="I127" t="s">
+        <v>61</v>
+      </c>
+      <c r="K127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" t="s">
+        <v>161</v>
+      </c>
+      <c r="F129" t="s">
+        <v>162</v>
+      </c>
+      <c r="H129" t="s">
         <v>150</v>
       </c>
-      <c r="I126" t="s">
-        <v>26</v>
-      </c>
-      <c r="K126" t="s">
+      <c r="I129" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="8:9">
-      <c r="H127" t="s">
-        <v>152</v>
-      </c>
-      <c r="I127" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128" spans="8:9">
-      <c r="H128" t="s">
-        <v>153</v>
-      </c>
-      <c r="I128" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11">
-      <c r="B130" t="s">
-        <v>154</v>
-      </c>
-      <c r="C130" t="s">
-        <v>72</v>
-      </c>
-      <c r="E130" t="s">
-        <v>155</v>
-      </c>
+    <row r="130" spans="8:11">
       <c r="H130" t="s">
         <v>156</v>
       </c>
       <c r="I130" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K130" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="131" spans="8:11">
+      <c r="H131" t="s">
+        <v>163</v>
+      </c>
+      <c r="I131" t="s">
+        <v>61</v>
+      </c>
+      <c r="K131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11">
+      <c r="H132" t="s">
         <v>158</v>
+      </c>
+      <c r="I132" t="s">
+        <v>61</v>
+      </c>
+      <c r="K132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" t="s">
+        <v>166</v>
+      </c>
+      <c r="F134" t="s">
+        <v>167</v>
+      </c>
+      <c r="H134" t="s">
+        <v>150</v>
+      </c>
+      <c r="I134" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="8:11">
+      <c r="H135" t="s">
+        <v>156</v>
+      </c>
+      <c r="I135" t="s">
+        <v>89</v>
+      </c>
+      <c r="K135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9">
+      <c r="H136" t="s">
+        <v>158</v>
+      </c>
+      <c r="I136" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C138" t="s">
-        <v>70</v>
+        <v>145</v>
+      </c>
+      <c r="E138" t="s">
+        <v>169</v>
       </c>
       <c r="H138" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="I138" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="8:9">
       <c r="H139" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I139" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="8:9">
       <c r="H140" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I140" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="B142" t="s">
-        <v>162</v>
-      </c>
-      <c r="C142" t="s">
-        <v>159</v>
-      </c>
-      <c r="E142" t="s">
-        <v>163</v>
-      </c>
-      <c r="H142" t="s">
-        <v>164</v>
-      </c>
-      <c r="I142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" t="s">
+        <v>171</v>
+      </c>
+      <c r="H143" t="s">
+        <v>150</v>
+      </c>
+      <c r="I143" t="s">
+        <v>151</v>
+      </c>
+      <c r="K143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="8:9">
+      <c r="H144" t="s">
+        <v>156</v>
+      </c>
+      <c r="I144" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="8:11">
+      <c r="H145" t="s">
+        <v>173</v>
+      </c>
+      <c r="I145" t="s">
         <v>26</v>
       </c>
-      <c r="K142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11">
-      <c r="B144" t="s">
-        <v>166</v>
-      </c>
-      <c r="C144" t="s">
-        <v>159</v>
-      </c>
-      <c r="E144" t="s">
-        <v>167</v>
-      </c>
-      <c r="H144" t="s">
-        <v>168</v>
-      </c>
-      <c r="I144" t="s">
-        <v>169</v>
-      </c>
-      <c r="K144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" t="s">
-        <v>171</v>
-      </c>
-      <c r="C146" t="s">
-        <v>159</v>
-      </c>
-      <c r="E146" t="s">
-        <v>172</v>
-      </c>
+      <c r="K145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="8:9">
       <c r="H146" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="I146" t="s">
-        <v>59</v>
-      </c>
-      <c r="K146" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" t="s">
-        <v>174</v>
-      </c>
-      <c r="C148" t="s">
-        <v>159</v>
-      </c>
-      <c r="E148" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="8:9">
+      <c r="H147" t="s">
         <v>176</v>
       </c>
-      <c r="C150" t="s">
-        <v>159</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="I147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" t="s">
+      <c r="C149" t="s">
+        <v>80</v>
+      </c>
+      <c r="E149" t="s">
         <v>178</v>
       </c>
-      <c r="C152" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9">
-      <c r="B154" t="s">
+      <c r="H149" t="s">
         <v>179</v>
       </c>
-      <c r="C154" t="s">
-        <v>178</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="I149" t="s">
+        <v>89</v>
+      </c>
+      <c r="K149" t="s">
         <v>180</v>
       </c>
-      <c r="F154" t="s">
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
         <v>181</v>
-      </c>
-      <c r="H154" t="s">
-        <v>129</v>
-      </c>
-      <c r="I154" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="155" spans="8:11">
-      <c r="H155" t="s">
-        <v>182</v>
-      </c>
-      <c r="I155" t="s">
-        <v>81</v>
-      </c>
-      <c r="K155" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="157" spans="2:9">
       <c r="B157" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C157" t="s">
-        <v>178</v>
-      </c>
-      <c r="E157" t="s">
-        <v>185</v>
-      </c>
-      <c r="F157" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="H157" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="I157" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="8:9">
       <c r="H158" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I158" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="8:9">
       <c r="H159" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I159" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="161" spans="2:9">
       <c r="B161" t="s">
+        <v>185</v>
+      </c>
+      <c r="C161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161" t="s">
+        <v>186</v>
+      </c>
+      <c r="H161" t="s">
+        <v>92</v>
+      </c>
+      <c r="I161" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" t="s">
+        <v>187</v>
+      </c>
+      <c r="C163" t="s">
+        <v>182</v>
+      </c>
+      <c r="E163" t="s">
+        <v>188</v>
+      </c>
+      <c r="H163" t="s">
         <v>189</v>
       </c>
-      <c r="C161" t="s">
-        <v>178</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="I163" t="s">
+        <v>26</v>
+      </c>
+      <c r="K163" t="s">
         <v>190</v>
-      </c>
-      <c r="F161" t="s">
-        <v>181</v>
-      </c>
-      <c r="H161" t="s">
-        <v>129</v>
-      </c>
-      <c r="I161" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="162" spans="8:9">
-      <c r="H162" t="s">
-        <v>186</v>
-      </c>
-      <c r="I162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="8:9">
-      <c r="H163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I163" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="165" spans="2:11">
       <c r="B165" t="s">
+        <v>191</v>
+      </c>
+      <c r="C165" t="s">
+        <v>182</v>
+      </c>
+      <c r="E165" t="s">
         <v>192</v>
       </c>
-      <c r="C165" t="s">
-        <v>159</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="H165" t="s">
         <v>193</v>
       </c>
-      <c r="H165" t="s">
-        <v>188</v>
-      </c>
       <c r="I165" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="K165" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="166" spans="8:11">
-      <c r="H166" t="s">
         <v>195</v>
       </c>
-      <c r="I166" t="s">
-        <v>59</v>
-      </c>
-      <c r="K166" t="s">
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="168" spans="2:6">
-      <c r="B168" t="s">
+      <c r="C167" t="s">
+        <v>182</v>
+      </c>
+      <c r="E167" t="s">
         <v>197</v>
       </c>
-      <c r="C168" t="s">
-        <v>159</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="H167" t="s">
+        <v>163</v>
+      </c>
+      <c r="I167" t="s">
+        <v>61</v>
+      </c>
+      <c r="K167" t="s">
         <v>198</v>
       </c>
-      <c r="F168" t="s">
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="C169" t="s">
+        <v>182</v>
+      </c>
+      <c r="E169" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="2:3">
+    <row r="171" spans="2:5">
+      <c r="B171" t="s">
+        <v>201</v>
+      </c>
+      <c r="C171" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" t="s">
+        <v>203</v>
+      </c>
+      <c r="C173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9">
       <c r="B175" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11">
-      <c r="B177" t="s">
-        <v>202</v>
-      </c>
-      <c r="C177" t="s">
-        <v>201</v>
-      </c>
-      <c r="E177" t="s">
         <v>203</v>
       </c>
+      <c r="E175" t="s">
+        <v>205</v>
+      </c>
+      <c r="F175" t="s">
+        <v>206</v>
+      </c>
+      <c r="H175" t="s">
+        <v>150</v>
+      </c>
+      <c r="I175" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="8:11">
+      <c r="H176" t="s">
+        <v>207</v>
+      </c>
+      <c r="I176" t="s">
+        <v>89</v>
+      </c>
+      <c r="K176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="8:9">
       <c r="H177" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I177" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="8:9">
+      <c r="H178" t="s">
+        <v>132</v>
+      </c>
+      <c r="I178" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>203</v>
+      </c>
+      <c r="E182" t="s">
+        <v>210</v>
+      </c>
+      <c r="F182" t="s">
+        <v>211</v>
+      </c>
+      <c r="H182" t="s">
+        <v>150</v>
+      </c>
+      <c r="I182" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="8:9">
+      <c r="H183" t="s">
+        <v>207</v>
+      </c>
+      <c r="I183" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="8:9">
+      <c r="H184" t="s">
         <v>130</v>
       </c>
-      <c r="K177" t="s">
+      <c r="I184" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="178" spans="8:11">
-      <c r="H178" t="s">
-        <v>204</v>
-      </c>
-      <c r="I178" t="s">
-        <v>59</v>
-      </c>
-      <c r="K178" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11">
-      <c r="B180" t="s">
-        <v>206</v>
-      </c>
-      <c r="C180" t="s">
-        <v>201</v>
-      </c>
-      <c r="E180" t="s">
+    <row r="185" spans="8:9">
+      <c r="H185" t="s">
+        <v>132</v>
+      </c>
+      <c r="I185" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="186" spans="8:9">
+      <c r="H186" t="s">
+        <v>175</v>
+      </c>
+      <c r="I186" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11">
+      <c r="B188" t="s">
+        <v>212</v>
+      </c>
+      <c r="C188" t="s">
+        <v>182</v>
+      </c>
+      <c r="E188" t="s">
+        <v>213</v>
+      </c>
+      <c r="H188" t="s">
         <v>207</v>
       </c>
-      <c r="H180" t="s">
-        <v>129</v>
-      </c>
-      <c r="I180" t="s">
+      <c r="I188" t="s">
+        <v>89</v>
+      </c>
+      <c r="K188" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="8:11">
+      <c r="H189" t="s">
         <v>130</v>
       </c>
-      <c r="K180" t="s">
+      <c r="I189" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="181" spans="8:11">
-      <c r="H181" t="s">
-        <v>204</v>
-      </c>
-      <c r="I181" t="s">
-        <v>59</v>
-      </c>
-      <c r="K181" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9">
-      <c r="B183" t="s">
-        <v>208</v>
-      </c>
-      <c r="C183" t="s">
-        <v>201</v>
-      </c>
-      <c r="E183" t="s">
-        <v>209</v>
-      </c>
-      <c r="H183" t="s">
-        <v>129</v>
-      </c>
-      <c r="I183" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="184" spans="8:11">
-      <c r="H184" t="s">
-        <v>204</v>
-      </c>
-      <c r="I184" t="s">
-        <v>59</v>
-      </c>
-      <c r="K184" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="186" customFormat="1" spans="2:9">
-      <c r="B186" t="s">
-        <v>210</v>
-      </c>
-      <c r="C186" t="s">
-        <v>201</v>
-      </c>
-      <c r="D186"/>
-      <c r="E186" t="s">
-        <v>211</v>
-      </c>
-      <c r="F186"/>
-      <c r="G186"/>
-      <c r="H186" t="s">
-        <v>129</v>
-      </c>
-      <c r="I186" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="187" customFormat="1" spans="8:11">
-      <c r="H187" t="s">
-        <v>204</v>
-      </c>
-      <c r="I187" t="s">
-        <v>59</v>
-      </c>
-      <c r="J187"/>
-      <c r="K187" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="189" customFormat="1" spans="2:11">
-      <c r="B189" t="s">
-        <v>212</v>
-      </c>
-      <c r="C189" t="s">
-        <v>201</v>
-      </c>
-      <c r="E189" t="s">
-        <v>213</v>
-      </c>
-      <c r="H189" t="s">
-        <v>204</v>
-      </c>
-      <c r="I189" t="s">
-        <v>59</v>
-      </c>
-      <c r="J189"/>
       <c r="K189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" customFormat="1" spans="8:11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="8:9">
       <c r="H190" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="I190" t="s">
-        <v>26</v>
-      </c>
-      <c r="K190" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="191" customFormat="1" spans="8:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="8:9">
       <c r="H191" t="s">
         <v>216</v>
       </c>
       <c r="I191" t="s">
-        <v>59</v>
-      </c>
-      <c r="K191" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" t="s">
         <v>217</v>
+      </c>
+      <c r="C193" t="s">
+        <v>182</v>
+      </c>
+      <c r="E193" t="s">
+        <v>218</v>
+      </c>
+      <c r="F193" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
       <c r="B197" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
-      </c>
-      <c r="F197" t="s">
-        <v>220</v>
-      </c>
-      <c r="H197" t="s">
-        <v>25</v>
-      </c>
-      <c r="I197" t="s">
-        <v>26</v>
-      </c>
-      <c r="K197" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11">
+      <c r="B199" t="s">
+        <v>222</v>
+      </c>
+      <c r="C199" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="198" spans="8:11">
-      <c r="H198" t="s">
-        <v>27</v>
-      </c>
-      <c r="I198" t="s">
-        <v>26</v>
-      </c>
-      <c r="K198" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6">
-      <c r="B200" t="s">
+      <c r="E199" t="s">
         <v>223</v>
       </c>
-      <c r="C200" t="s">
-        <v>219</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="H199" t="s">
+        <v>150</v>
+      </c>
+      <c r="I199" t="s">
+        <v>151</v>
+      </c>
+      <c r="K199" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="200" spans="8:11">
+      <c r="H200" t="s">
         <v>224</v>
       </c>
-      <c r="F200" t="s">
+      <c r="I200" t="s">
+        <v>61</v>
+      </c>
+      <c r="K200" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="202" spans="2:6">
+    <row r="202" spans="2:11">
       <c r="B202" t="s">
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E202" t="s">
         <v>227</v>
       </c>
-      <c r="F202" t="s">
+      <c r="H202" t="s">
+        <v>150</v>
+      </c>
+      <c r="I202" t="s">
+        <v>151</v>
+      </c>
+      <c r="K202" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="203" spans="8:11">
+      <c r="H203" t="s">
+        <v>224</v>
+      </c>
+      <c r="I203" t="s">
+        <v>61</v>
+      </c>
+      <c r="K203" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9">
+      <c r="B205" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="204" spans="2:6">
-      <c r="B204" t="s">
+      <c r="C205" t="s">
+        <v>221</v>
+      </c>
+      <c r="E205" t="s">
         <v>229</v>
       </c>
-      <c r="C204" t="s">
-        <v>219</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="H205" t="s">
+        <v>150</v>
+      </c>
+      <c r="I205" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="206" spans="8:11">
+      <c r="H206" t="s">
+        <v>224</v>
+      </c>
+      <c r="I206" t="s">
+        <v>61</v>
+      </c>
+      <c r="K206" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="208" customFormat="1" spans="2:9">
+      <c r="B208" t="s">
         <v>230</v>
       </c>
-      <c r="F204" t="s">
+      <c r="C208" t="s">
+        <v>221</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208" t="s">
+        <v>150</v>
+      </c>
+      <c r="I208" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="209" customFormat="1" spans="8:11">
+      <c r="H209" t="s">
+        <v>224</v>
+      </c>
+      <c r="I209" t="s">
+        <v>61</v>
+      </c>
+      <c r="J209"/>
+      <c r="K209" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211" customFormat="1" spans="2:11">
+      <c r="B211" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" t="s">
+      <c r="C211" t="s">
+        <v>221</v>
+      </c>
+      <c r="E211" t="s">
         <v>233</v>
       </c>
-      <c r="C210" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5">
-      <c r="B212" t="s">
+      <c r="H211" t="s">
+        <v>224</v>
+      </c>
+      <c r="I211" t="s">
+        <v>61</v>
+      </c>
+      <c r="J211"/>
+      <c r="K211" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" customFormat="1" spans="8:11">
+      <c r="H212" t="s">
         <v>234</v>
       </c>
-      <c r="C212" t="s">
-        <v>233</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="I212" t="s">
+        <v>26</v>
+      </c>
+      <c r="K212" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="214" spans="2:5">
-      <c r="B214" t="s">
+    <row r="213" customFormat="1" spans="8:11">
+      <c r="H213" t="s">
         <v>236</v>
       </c>
-      <c r="C214" t="s">
-        <v>233</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="I213" t="s">
+        <v>61</v>
+      </c>
+      <c r="K213" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="216" spans="2:5">
-      <c r="B216" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
         <v>238</v>
       </c>
-      <c r="C216" t="s">
-        <v>233</v>
-      </c>
-      <c r="E216" t="s">
+    </row>
+    <row r="219" spans="2:11">
+      <c r="B219" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="218" spans="2:5">
-      <c r="B218" t="s">
+      <c r="C219" t="s">
+        <v>21</v>
+      </c>
+      <c r="F219" t="s">
         <v>240</v>
       </c>
-      <c r="C218" t="s">
-        <v>233</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="H219" t="s">
+        <v>25</v>
+      </c>
+      <c r="I219" t="s">
+        <v>26</v>
+      </c>
+      <c r="K219" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="220" spans="2:5">
-      <c r="B220" t="s">
+    <row r="220" spans="8:11">
+      <c r="H220" t="s">
+        <v>27</v>
+      </c>
+      <c r="I220" t="s">
+        <v>26</v>
+      </c>
+      <c r="K220" t="s">
         <v>242</v>
       </c>
-      <c r="C220" t="s">
-        <v>233</v>
-      </c>
-      <c r="E220" t="s">
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="222" spans="2:11">
-      <c r="B222" t="s">
+      <c r="C222" t="s">
+        <v>239</v>
+      </c>
+      <c r="E222" t="s">
         <v>244</v>
       </c>
-      <c r="C222" t="s">
-        <v>233</v>
-      </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>245</v>
-      </c>
-      <c r="H222" t="s">
-        <v>246</v>
-      </c>
-      <c r="I222" t="s">
-        <v>59</v>
-      </c>
-      <c r="K222" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="224" spans="2:6">
       <c r="B224" t="s">
+        <v>246</v>
+      </c>
+      <c r="C224" t="s">
+        <v>239</v>
+      </c>
+      <c r="E224" t="s">
+        <v>247</v>
+      </c>
+      <c r="F224" t="s">
         <v>248</v>
       </c>
-      <c r="C224" t="s">
-        <v>233</v>
-      </c>
-      <c r="E224" t="s">
+    </row>
+    <row r="226" spans="2:6">
+      <c r="B226" t="s">
         <v>249</v>
       </c>
-      <c r="F224" t="s">
+      <c r="C226" t="s">
+        <v>239</v>
+      </c>
+      <c r="E226" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+      <c r="F226" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="231" spans="2:3">
-      <c r="B231" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
         <v>252</v>
       </c>
-      <c r="C231" t="s">
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" t="s">
+        <v>253</v>
+      </c>
+      <c r="C232" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="233" spans="2:5">
-      <c r="B233" t="s">
+    <row r="234" spans="2:5">
+      <c r="B234" t="s">
+        <v>254</v>
+      </c>
+      <c r="C234" t="s">
         <v>253</v>
       </c>
-      <c r="C233" t="s">
-        <v>252</v>
-      </c>
-      <c r="E233" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="235" spans="2:5">
-      <c r="B235" t="s">
+      <c r="E234" t="s">
         <v>255</v>
       </c>
-      <c r="C235" t="s">
-        <v>252</v>
-      </c>
-      <c r="E235" t="s">
+    </row>
+    <row r="236" spans="2:5">
+      <c r="B236" t="s">
         <v>256</v>
+      </c>
+      <c r="C236" t="s">
+        <v>253</v>
+      </c>
+      <c r="E236" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5">
+      <c r="B238" t="s">
+        <v>258</v>
+      </c>
+      <c r="C238" t="s">
+        <v>253</v>
+      </c>
+      <c r="E238" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6">
+      <c r="B240" t="s">
+        <v>260</v>
+      </c>
+      <c r="C240" t="s">
+        <v>253</v>
+      </c>
+      <c r="E240" t="s">
+        <v>261</v>
+      </c>
+      <c r="F240" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="B242" t="s">
+        <v>263</v>
+      </c>
+      <c r="C242" t="s">
+        <v>253</v>
+      </c>
+      <c r="E242" t="s">
+        <v>264</v>
+      </c>
+      <c r="F242" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" t="s">
+        <v>266</v>
+      </c>
+      <c r="C244" t="s">
+        <v>253</v>
+      </c>
+      <c r="E244" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" t="s">
+        <v>268</v>
+      </c>
+      <c r="C246" t="s">
+        <v>253</v>
+      </c>
+      <c r="E246" t="s">
+        <v>269</v>
+      </c>
+      <c r="F246" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11">
+      <c r="B248" t="s">
+        <v>271</v>
+      </c>
+      <c r="C248" t="s">
+        <v>253</v>
+      </c>
+      <c r="E248" t="s">
+        <v>272</v>
+      </c>
+      <c r="H248" t="s">
+        <v>273</v>
+      </c>
+      <c r="I248" t="s">
+        <v>61</v>
+      </c>
+      <c r="K248" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" t="s">
+        <v>275</v>
+      </c>
+      <c r="C250" t="s">
+        <v>253</v>
+      </c>
+      <c r="E250" t="s">
+        <v>276</v>
+      </c>
+      <c r="F250" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
+        <v>279</v>
+      </c>
+      <c r="C257" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" t="s">
+        <v>280</v>
+      </c>
+      <c r="C259" t="s">
+        <v>279</v>
+      </c>
+      <c r="E259" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" t="s">
+        <v>282</v>
+      </c>
+      <c r="C261" t="s">
+        <v>279</v>
+      </c>
+      <c r="E261" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3917,7 +4226,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -4023,29 +4332,29 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="C7" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="E7" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="H7" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -4053,19 +4362,19 @@
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="H10" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="I10" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4086,7 +4395,7 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -4192,97 +4501,97 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:9">
       <c r="B7" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="H7" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="8:9">
       <c r="H8" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="H10" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="8:9">
       <c r="H11" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="8:9">
       <c r="H12" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:9">
       <c r="B14" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="H14" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="8:9">
       <c r="H15" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="8:9">
       <c r="H16" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="8:9">
       <c r="H17" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4299,13 +4608,13 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="40.5" customWidth="1"/>
@@ -4411,197 +4720,197 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K8" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K9" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K12" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="8:11">
       <c r="H13" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K13" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="K14" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K15" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="8:11">
       <c r="H16" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="4" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="I18" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="K18" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="I19" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="K19" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="F21" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="F25" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="H27" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="I27" t="s">
         <v>26</v>
@@ -4609,42 +4918,42 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4659,13 +4968,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="47.625" customWidth="1"/>
@@ -4771,116 +5080,116 @@
     </row>
     <row r="6" customFormat="1" spans="2:6">
       <c r="B6" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:6">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:3">
       <c r="B10" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:3">
       <c r="B16" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:5">
       <c r="B18" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="E18" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:11">
       <c r="B20" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="E20" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="H20" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:11">
       <c r="B22" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="E22" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="H22" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:1">
@@ -4890,142 +5199,202 @@
     </row>
     <row r="26" customFormat="1" spans="2:9">
       <c r="B26" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" t="s">
-        <v>302</v>
-      </c>
-      <c r="E28" t="s">
-        <v>323</v>
-      </c>
-      <c r="F28" t="s">
-        <v>324</v>
-      </c>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27" t="s">
+        <v>349</v>
+      </c>
+      <c r="I27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" t="s">
+        <v>352</v>
+      </c>
       <c r="H29" t="s">
-        <v>325</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="8:9">
       <c r="H30" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="2:11">
-      <c r="B32" t="s">
-        <v>327</v>
-      </c>
-      <c r="C32" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" t="s">
-        <v>328</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31" t="s">
+        <v>353</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9">
       <c r="H32" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="2:11">
+      <c r="B39" t="s">
+        <v>355</v>
+      </c>
+      <c r="C39" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="34" customFormat="1" spans="2:5">
-      <c r="B34" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" t="s">
-        <v>332</v>
-      </c>
-      <c r="C36" t="s">
-        <v>302</v>
-      </c>
-      <c r="E36" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" t="s">
-        <v>334</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="E39" t="s">
+        <v>356</v>
+      </c>
+      <c r="H39" t="s">
+        <v>339</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="2:5">
+      <c r="B41" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C41" t="s">
+        <v>329</v>
+      </c>
+      <c r="E41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" t="s">
+        <v>329</v>
+      </c>
+      <c r="E43" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" t="s">
+        <v>362</v>
+      </c>
+      <c r="I43" t="s">
         <v>26</v>
       </c>
-      <c r="K36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11">
-      <c r="H37" t="s">
-        <v>336</v>
-      </c>
-      <c r="I37" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11">
-      <c r="H38" t="s">
-        <v>137</v>
-      </c>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11">
-      <c r="H39" t="s">
-        <v>188</v>
-      </c>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" t="s">
-        <v>337</v>
+      <c r="K43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11">
+      <c r="H44" t="s">
+        <v>364</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11">
+      <c r="H45" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11">
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11">
+      <c r="H47" t="s">
+        <v>366</v>
+      </c>
+      <c r="I47" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" t="s">
+        <v>329</v>
+      </c>
+      <c r="E49" t="s">
+        <v>369</v>
+      </c>
+      <c r="H49" t="s">
+        <v>370</v>
+      </c>
+      <c r="I49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9">
+      <c r="H50" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9">
+      <c r="H51" t="s">
+        <v>317</v>
+      </c>
+      <c r="I51" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5045,10 +5414,10 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -5060,7 +5429,7 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
     <col min="10" max="10" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="34.375" customWidth="1"/>
     <col min="12" max="12" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5154,53 +5523,56 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="F6" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="H9" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="8:9">
       <c r="H10" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="I11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="8:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="I12" t="s">
         <v>26</v>
       </c>
+      <c r="K12" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
@@ -5208,7 +5580,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
@@ -5216,7 +5588,7 @@
     </row>
     <row r="15" spans="8:9">
       <c r="H15" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -5224,7 +5596,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
@@ -5232,7 +5604,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -5240,58 +5612,58 @@
     </row>
     <row r="18" spans="8:9">
       <c r="H18" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="I18" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="I19" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="I20" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="H21" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="I21" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="I22" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="I23" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="8:9">
       <c r="H24" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5314,7 +5686,7 @@
       <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -5421,43 +5793,43 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="F6" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="H10" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="I10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="8:9">
       <c r="H11" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="8:11">
       <c r="H12" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="I12" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="K12" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -5480,7 +5852,7 @@
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -5586,21 +5958,21 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F6" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="H10" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="I10" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5618,10 +5990,10 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
@@ -5630,7 +6002,7 @@
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="46.75" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
     <col min="9" max="9" width="27.875" customWidth="1"/>
     <col min="10" max="10" width="6.625" customWidth="1"/>
     <col min="11" max="11" width="40.5" customWidth="1"/>
@@ -5727,10 +6099,10 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="6:6">
@@ -5738,64 +6110,64 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="C10" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="E10" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="H10" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="I10" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="K10" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="8:11">
       <c r="H11" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="I11" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K11" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="E14" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="6:6">
@@ -5822,7 +6194,7 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -5928,21 +6300,21 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="H7" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -5950,7 +6322,7 @@
     </row>
     <row r="8" spans="8:9">
       <c r="H8" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -5958,80 +6330,80 @@
     </row>
     <row r="9" spans="8:11">
       <c r="H9" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="8:11">
       <c r="H10" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="I10" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K10" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="E13" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="H13" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="8:11">
       <c r="H14" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="I15" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="K15" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H17" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -6039,35 +6411,35 @@
     </row>
     <row r="18" spans="8:11">
       <c r="H18" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="I20" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K20" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -6088,7 +6460,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -6194,35 +6566,35 @@
     </row>
     <row r="5" customFormat="1" spans="2:2">
       <c r="B5" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:6">
       <c r="B7" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="F7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:9">
       <c r="B9" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="E9" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="H9" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
